--- a/TablaPredictiva4.xlsx
+++ b/TablaPredictiva4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\por_s\OneDrive\Documentos\NetBeansProjects\EditorPlanet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DE97B8-D286-493A-B124-E3C88877303B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07921928-B32A-4B74-BB35-EFFB999E6A18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{19BBAF05-AE76-4597-A16E-99E6CBDAA219}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="298">
   <si>
     <t>1</t>
   </si>
@@ -495,406 +495,439 @@
     <t xml:space="preserve">&lt;Alternativa1&gt; </t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;Condicion&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Operacion&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;OperacionSistema&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;OperacionSistema1&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Lectura&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Escritura&gt; </t>
+  </si>
+  <si>
+    <t>&lt;Salida&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Concatenacion&gt; </t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;SentenciaSi&gt; </t>
+  </si>
+  <si>
+    <t>&lt;ComentariosIniciales&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ClaseG&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Clase&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Polimorfismo&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Paquete&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Extension&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Herencia&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ModificadorAcceso&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Comentario&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Libreria&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ConjuntoAtributo&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;AsignacionAtributo2&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;AsignacionNuevo&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;OperadorCondicion&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;OperacionParentesis&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;OperacionParentesis1&gt; </t>
+  </si>
+  <si>
+    <t>&lt;Expresion&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ExpresionOperacion1&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ExpresionOperacion2&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ExpresionOperacion3&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ExpresionOperacion4&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ExpresionOperacion5&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;OperadorAritRel&gt; </t>
+  </si>
+  <si>
+    <t>&lt;OperadorAritRelLog&gt;</t>
+  </si>
+  <si>
+    <t>&lt;OperadorRelConcat&gt;</t>
+  </si>
+  <si>
+    <t>&lt;OperadorLog&gt;</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Igualacion&gt; </t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;OperadorAritRel1&gt; </t>
+  </si>
+  <si>
+    <t>&lt;OperadorAritRelLog1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;OperadorRelConcat1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;OperadorLogLog1&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;Alternativa2&gt; </t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;Condicion&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Operacion&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;OperacionSistema&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;OperacionSistema1&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Lectura&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Escritura&gt; </t>
-  </si>
-  <si>
-    <t>&lt;Salida&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Concatenacion&gt; </t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;SentenciaSi&gt; </t>
-  </si>
-  <si>
-    <t>&lt;ComentariosIniciales&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ClaseG&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Clase&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Polimorfismo&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Paquete&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Extension&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Herencia&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ModificadorAcceso&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Comentario&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Libreria&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ConjuntoAtributo&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;AsignacionAtributo2&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;AsignacionNuevo&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;OperadorCondicion&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;OperacionParentesis&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;OperacionParentesis1&gt; </t>
-  </si>
-  <si>
-    <t>&lt;Expresion&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;ExpresionOperacion1&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;ExpresionOperacion2&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;ExpresionOperacion3&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;ExpresionOperacion4&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;ExpresionOperacion5&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;OperadorAritRel&gt; </t>
-  </si>
-  <si>
-    <t>&lt;OperadorAritRelLog&gt;</t>
-  </si>
-  <si>
-    <t>&lt;OperadorRelConcat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;OperadorLog&gt;</t>
-  </si>
-  <si>
-    <t>&lt;OperadorLogLog&gt;</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
     <t>140</t>
   </si>
   <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;Igualacion&gt; </t>
+    <t>199</t>
   </si>
 </sst>
 </file>
@@ -977,7 +1010,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -991,6 +1024,8 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1305,10 +1340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24A5D38-DDF8-43E4-A0F0-33C1C9B6795A}">
-  <dimension ref="A1:CT96"/>
+  <dimension ref="A1:CT99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="AG67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BT90" sqref="BT90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,7 +1647,7 @@
         <v>95</v>
       </c>
       <c r="CT1" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
@@ -1721,7 +1756,7 @@
     </row>
     <row r="3" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1833,7 +1868,7 @@
     </row>
     <row r="4" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1939,7 +1974,7 @@
     </row>
     <row r="5" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2043,7 +2078,7 @@
     </row>
     <row r="6" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -2169,7 +2204,7 @@
     </row>
     <row r="7" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2275,7 +2310,7 @@
     </row>
     <row r="8" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2379,7 +2414,7 @@
     </row>
     <row r="9" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
@@ -2627,7 +2662,7 @@
     </row>
     <row r="11" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2735,7 +2770,7 @@
     </row>
     <row r="12" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2843,7 +2878,7 @@
     </row>
     <row r="13" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3961,7 +3996,7 @@
     </row>
     <row r="23" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -5141,7 +5176,7 @@
     </row>
     <row r="33" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -5247,7 +5282,7 @@
     </row>
     <row r="34" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -5353,7 +5388,7 @@
     </row>
     <row r="35" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -6908,7 +6943,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>96</v>
@@ -7014,7 +7049,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7130,7 +7165,7 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
       <c r="X51" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
@@ -7178,7 +7213,7 @@
       <c r="BP51" s="2"/>
       <c r="BQ51" s="2"/>
       <c r="BR51" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="BS51" s="2"/>
       <c r="BT51" s="2"/>
@@ -7236,7 +7271,7 @@
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
       <c r="X52" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
@@ -7329,7 +7364,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7446,10 +7481,10 @@
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
       <c r="Z54" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AA54" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AB54" s="2"/>
       <c r="AC54" s="2"/>
@@ -7465,10 +7500,10 @@
       <c r="AM54" s="2"/>
       <c r="AN54" s="2"/>
       <c r="AO54" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AP54" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AQ54" s="2"/>
       <c r="AR54" s="2"/>
@@ -7478,7 +7513,7 @@
       <c r="AV54" s="2"/>
       <c r="AW54" s="2"/>
       <c r="AX54" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AY54" s="2"/>
       <c r="AZ54" s="2"/>
@@ -7489,7 +7524,7 @@
       <c r="BE54" s="2"/>
       <c r="BF54" s="2"/>
       <c r="BG54" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="BH54" s="2"/>
       <c r="BI54" s="2"/>
@@ -7502,26 +7537,26 @@
       <c r="BP54" s="2"/>
       <c r="BQ54" s="2"/>
       <c r="BR54" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="BS54" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="BT54" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="BU54" s="2"/>
       <c r="BV54" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="BW54" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="BX54" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="BY54" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="BZ54" s="5"/>
       <c r="CA54" s="5"/>
@@ -7618,7 +7653,7 @@
       <c r="BP55" s="2"/>
       <c r="BQ55" s="2"/>
       <c r="BR55" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="BS55" s="2"/>
       <c r="BT55" s="2"/>
@@ -7678,7 +7713,7 @@
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
       <c r="Z56" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
@@ -7725,10 +7760,10 @@
       <c r="BQ56" s="2"/>
       <c r="BR56" s="2"/>
       <c r="BS56" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="BT56" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="BU56" s="2"/>
       <c r="BV56" s="2"/>
@@ -7830,7 +7865,7 @@
       <c r="BP57" s="2"/>
       <c r="BQ57" s="2"/>
       <c r="BR57" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BS57" s="2"/>
       <c r="BT57" s="2"/>
@@ -7890,7 +7925,7 @@
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
       <c r="Z58" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
@@ -7926,7 +7961,7 @@
       <c r="BF58" s="2"/>
       <c r="BG58" s="2"/>
       <c r="BH58" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="BI58" s="2"/>
       <c r="BJ58" s="2"/>
@@ -7939,10 +7974,10 @@
       <c r="BQ58" s="2"/>
       <c r="BR58" s="2"/>
       <c r="BS58" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BT58" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BU58" s="2"/>
       <c r="BV58" s="2"/>
@@ -8025,7 +8060,7 @@
       <c r="AW59" s="2"/>
       <c r="AX59" s="2"/>
       <c r="AY59" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AZ59" s="2"/>
       <c r="BA59" s="2"/>
@@ -8036,7 +8071,7 @@
       <c r="BF59" s="2"/>
       <c r="BG59" s="2"/>
       <c r="BH59" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="BI59" s="2"/>
       <c r="BJ59" s="2"/>
@@ -8145,10 +8180,10 @@
       <c r="BK60" s="2"/>
       <c r="BL60" s="2"/>
       <c r="BM60" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BN60" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="BO60" s="2"/>
       <c r="BP60" s="2"/>
@@ -8197,14 +8232,14 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
@@ -8221,34 +8256,34 @@
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
       <c r="AE61" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AF61" s="2"/>
       <c r="AG61" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AH61" s="2"/>
       <c r="AI61" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AJ61" s="2"/>
       <c r="AK61" s="2"/>
       <c r="AL61" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AM61" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AN61" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AO61" s="2"/>
       <c r="AP61" s="2"/>
       <c r="AQ61" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AR61" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AS61" s="2"/>
       <c r="AT61" s="2"/>
@@ -8262,7 +8297,7 @@
       <c r="BB61" s="2"/>
       <c r="BC61" s="2"/>
       <c r="BD61" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BE61" s="2"/>
       <c r="BF61" s="2"/>
@@ -8277,19 +8312,19 @@
       <c r="BO61" s="2"/>
       <c r="BP61" s="2"/>
       <c r="BQ61" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="BR61" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="BS61" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="BT61" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="BU61" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="BV61" s="2"/>
       <c r="BW61" s="2"/>
@@ -8297,10 +8332,10 @@
       <c r="BY61" s="5"/>
       <c r="BZ61" s="5"/>
       <c r="CA61" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="CB61" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="CC61" s="5"/>
       <c r="CD61" s="5"/>
@@ -8340,7 +8375,7 @@
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
@@ -8359,30 +8394,30 @@
       <c r="AE62" s="2"/>
       <c r="AF62" s="2"/>
       <c r="AG62" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AH62" s="2"/>
       <c r="AI62" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AJ62" s="2"/>
       <c r="AK62" s="2"/>
       <c r="AL62" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM62" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN62" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="AM62" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AN62" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="AO62" s="2"/>
       <c r="AP62" s="2"/>
       <c r="AQ62" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AR62" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AS62" s="2"/>
       <c r="AT62" s="2"/>
@@ -8409,19 +8444,19 @@
       <c r="BO62" s="2"/>
       <c r="BP62" s="2"/>
       <c r="BQ62" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="BR62" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="BS62" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="BT62" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="BU62" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="BV62" s="2"/>
       <c r="BW62" s="2"/>
@@ -8429,10 +8464,10 @@
       <c r="BY62" s="5"/>
       <c r="BZ62" s="5"/>
       <c r="CA62" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="CB62" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="CC62" s="5"/>
       <c r="CD62" s="5"/>
@@ -8455,7 +8490,7 @@
     </row>
     <row r="63" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -8491,7 +8526,7 @@
       <c r="AG63" s="2"/>
       <c r="AH63" s="2"/>
       <c r="AI63" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AJ63" s="2"/>
       <c r="AK63" s="2"/>
@@ -8571,14 +8606,14 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
@@ -8595,38 +8630,38 @@
       <c r="AC64" s="2"/>
       <c r="AD64" s="2"/>
       <c r="AE64" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AF64" s="2"/>
       <c r="AG64" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AH64" s="2"/>
       <c r="AI64" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AJ64" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK64" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL64" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="AK64" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AL64" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="AM64" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AN64" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AO64" s="2"/>
       <c r="AP64" s="2"/>
       <c r="AQ64" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AR64" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AS64" s="2"/>
       <c r="AT64" s="2"/>
@@ -8640,7 +8675,7 @@
       <c r="BB64" s="2"/>
       <c r="BC64" s="2"/>
       <c r="BD64" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="BE64" s="2"/>
       <c r="BF64" s="2"/>
@@ -8655,19 +8690,19 @@
       <c r="BO64" s="2"/>
       <c r="BP64" s="2"/>
       <c r="BQ64" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="BR64" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="BS64" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="BT64" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="BU64" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="BV64" s="2"/>
       <c r="BW64" s="2"/>
@@ -8675,10 +8710,10 @@
       <c r="BY64" s="5"/>
       <c r="BZ64" s="5"/>
       <c r="CA64" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="CB64" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="CC64" s="5"/>
       <c r="CD64" s="5"/>
@@ -8738,7 +8773,7 @@
       <c r="AH65" s="2"/>
       <c r="AI65" s="2"/>
       <c r="AJ65" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AK65" s="2"/>
       <c r="AL65" s="2"/>
@@ -8843,7 +8878,7 @@
       <c r="AI66" s="2"/>
       <c r="AJ66" s="2"/>
       <c r="AK66" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AL66" s="2"/>
       <c r="AM66" s="2"/>
@@ -8950,7 +8985,7 @@
       <c r="AL67" s="2"/>
       <c r="AM67" s="2"/>
       <c r="AN67" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AO67" s="2"/>
       <c r="AP67" s="2"/>
@@ -9052,7 +9087,7 @@
       <c r="AJ68" s="2"/>
       <c r="AK68" s="2"/>
       <c r="AL68" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AM68" s="2"/>
       <c r="AN68" s="2"/>
@@ -9157,7 +9192,7 @@
       <c r="AK69" s="2"/>
       <c r="AL69" s="2"/>
       <c r="AM69" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AN69" s="2"/>
       <c r="AO69" s="2"/>
@@ -9255,7 +9290,7 @@
       <c r="AE70" s="2"/>
       <c r="AF70" s="2"/>
       <c r="AG70" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AH70" s="2"/>
       <c r="AI70" s="2"/>
@@ -9360,7 +9395,7 @@
       <c r="AF71" s="2"/>
       <c r="AG71" s="2"/>
       <c r="AH71" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AI71" s="2"/>
       <c r="AJ71" s="2"/>
@@ -9460,13 +9495,13 @@
       <c r="AB72" s="2"/>
       <c r="AC72" s="2"/>
       <c r="AD72" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AE72" s="2"/>
       <c r="AF72" s="2"/>
       <c r="AG72" s="2"/>
       <c r="AH72" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AI72" s="2"/>
       <c r="AJ72" s="2"/>
@@ -9490,7 +9525,7 @@
       <c r="BB72" s="2"/>
       <c r="BC72" s="2"/>
       <c r="BD72" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="BE72" s="2"/>
       <c r="BF72" s="2"/>
@@ -9537,9 +9572,9 @@
     </row>
     <row r="73" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B73" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="B73" s="10"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -9568,7 +9603,7 @@
       <c r="AB73" s="2"/>
       <c r="AC73" s="2"/>
       <c r="AD73" s="2" t="s">
-        <v>233</v>
+        <v>296</v>
       </c>
       <c r="AE73" s="2"/>
       <c r="AF73" s="2"/>
@@ -9641,2355 +9676,2453 @@
     </row>
     <row r="74" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
-      <c r="S74" s="2"/>
-      <c r="T74" s="2"/>
-      <c r="U74" s="2"/>
-      <c r="V74" s="2"/>
-      <c r="W74" s="2"/>
-      <c r="X74" s="2"/>
-      <c r="Y74" s="2"/>
-      <c r="Z74" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="AA74" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="AB74" s="2"/>
-      <c r="AC74" s="2"/>
-      <c r="AD74" s="2"/>
-      <c r="AE74" s="2"/>
-      <c r="AF74" s="2"/>
-      <c r="AG74" s="2"/>
-      <c r="AH74" s="2"/>
-      <c r="AI74" s="2"/>
-      <c r="AJ74" s="2"/>
-      <c r="AK74" s="2"/>
-      <c r="AL74" s="2"/>
-      <c r="AM74" s="2"/>
-      <c r="AN74" s="2"/>
-      <c r="AO74" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="AP74" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="AQ74" s="2"/>
-      <c r="AR74" s="2"/>
-      <c r="AS74" s="2"/>
-      <c r="AT74" s="2"/>
-      <c r="AU74" s="2"/>
-      <c r="AV74" s="2"/>
-      <c r="AW74" s="2"/>
-      <c r="AX74" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="AY74" s="2"/>
-      <c r="AZ74" s="2"/>
-      <c r="BA74" s="2"/>
-      <c r="BB74" s="2"/>
-      <c r="BC74" s="2"/>
-      <c r="BD74" s="2"/>
-      <c r="BE74" s="2"/>
-      <c r="BF74" s="2"/>
-      <c r="BG74" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="BH74" s="2"/>
-      <c r="BI74" s="2"/>
-      <c r="BJ74" s="2"/>
-      <c r="BK74" s="2"/>
-      <c r="BL74" s="2"/>
-      <c r="BM74" s="2"/>
-      <c r="BN74" s="2"/>
-      <c r="BO74" s="2"/>
-      <c r="BP74" s="2"/>
-      <c r="BQ74" s="2"/>
-      <c r="BR74" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="BS74" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="BT74" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="BU74" s="2"/>
-      <c r="BV74" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="BW74" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="BX74" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="BY74" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="BZ74" s="5"/>
-      <c r="CA74" s="5"/>
-      <c r="CB74" s="5"/>
-      <c r="CC74" s="5"/>
-      <c r="CD74" s="5"/>
-      <c r="CE74" s="5"/>
-      <c r="CF74" s="5"/>
-      <c r="CG74" s="5"/>
-      <c r="CH74" s="5"/>
-      <c r="CI74" s="5"/>
-      <c r="CJ74" s="5"/>
-      <c r="CK74" s="5"/>
-      <c r="CL74" s="5"/>
-      <c r="CM74" s="5"/>
-      <c r="CN74" s="5"/>
-      <c r="CO74" s="5"/>
-      <c r="CP74" s="5"/>
-      <c r="CQ74" s="5"/>
-      <c r="CR74" s="5"/>
-      <c r="CS74" s="5"/>
+        <v>153</v>
+      </c>
+      <c r="B74" s="9"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA74" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB74" s="3"/>
+      <c r="AC74" s="3"/>
+      <c r="AD74" s="3"/>
+      <c r="AE74" s="3"/>
+      <c r="AF74" s="3"/>
+      <c r="AG74" s="3"/>
+      <c r="AH74" s="3"/>
+      <c r="AI74" s="3"/>
+      <c r="AJ74" s="3"/>
+      <c r="AK74" s="3"/>
+      <c r="AL74" s="3"/>
+      <c r="AM74" s="3"/>
+      <c r="AN74" s="3"/>
+      <c r="AO74" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AP74" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AQ74" s="3"/>
+      <c r="AR74" s="3"/>
+      <c r="AS74" s="3"/>
+      <c r="AT74" s="3"/>
+      <c r="AU74" s="3"/>
+      <c r="AV74" s="3"/>
+      <c r="AW74" s="3"/>
+      <c r="AX74" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AY74" s="3"/>
+      <c r="AZ74" s="3"/>
+      <c r="BA74" s="3"/>
+      <c r="BB74" s="3"/>
+      <c r="BC74" s="3"/>
+      <c r="BD74" s="3"/>
+      <c r="BE74" s="3"/>
+      <c r="BF74" s="3"/>
+      <c r="BG74" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="BH74" s="3"/>
+      <c r="BI74" s="3"/>
+      <c r="BJ74" s="3"/>
+      <c r="BK74" s="3"/>
+      <c r="BL74" s="3"/>
+      <c r="BM74" s="3"/>
+      <c r="BN74" s="3"/>
+      <c r="BO74" s="3"/>
+      <c r="BP74" s="3"/>
+      <c r="BQ74" s="3"/>
+      <c r="BR74" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="BS74" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="BT74" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="BU74" s="3"/>
+      <c r="BV74" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="BW74" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="BX74" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="BY74" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="BZ74" s="3"/>
+      <c r="CA74" s="3"/>
+      <c r="CB74" s="3"/>
+      <c r="CC74" s="3"/>
+      <c r="CD74" s="3"/>
+      <c r="CE74" s="3"/>
+      <c r="CF74" s="3"/>
+      <c r="CG74" s="3"/>
+      <c r="CH74" s="3"/>
+      <c r="CI74" s="3"/>
+      <c r="CJ74" s="3"/>
+      <c r="CK74" s="3"/>
+      <c r="CL74" s="3"/>
+      <c r="CM74" s="3"/>
+      <c r="CN74" s="3"/>
+      <c r="CO74" s="3"/>
+      <c r="CP74" s="3"/>
+      <c r="CQ74" s="3"/>
+      <c r="CR74" s="3"/>
+      <c r="CS74" s="3"/>
       <c r="CT74" s="8"/>
     </row>
     <row r="75" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
-      <c r="U75" s="2"/>
-      <c r="V75" s="2"/>
-      <c r="W75" s="2"/>
-      <c r="X75" s="2"/>
-      <c r="Y75" s="2"/>
-      <c r="Z75" s="2"/>
-      <c r="AA75" s="2"/>
-      <c r="AB75" s="2"/>
-      <c r="AC75" s="2"/>
-      <c r="AD75" s="2"/>
-      <c r="AE75" s="2"/>
-      <c r="AF75" s="2"/>
-      <c r="AG75" s="2"/>
-      <c r="AH75" s="2"/>
-      <c r="AI75" s="2"/>
-      <c r="AJ75" s="2"/>
-      <c r="AK75" s="2"/>
-      <c r="AL75" s="2"/>
-      <c r="AM75" s="2"/>
-      <c r="AN75" s="2"/>
-      <c r="AO75" s="2"/>
-      <c r="AP75" s="2"/>
-      <c r="AQ75" s="2"/>
-      <c r="AR75" s="2"/>
-      <c r="AS75" s="2"/>
-      <c r="AT75" s="2"/>
-      <c r="AU75" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="AV75" s="2"/>
-      <c r="AW75" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="AX75" s="2"/>
-      <c r="AY75" s="2"/>
-      <c r="AZ75" s="2"/>
-      <c r="BA75" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="BB75" s="2"/>
-      <c r="BC75" s="2"/>
-      <c r="BD75" s="2"/>
-      <c r="BE75" s="2"/>
-      <c r="BF75" s="2"/>
-      <c r="BG75" s="2"/>
-      <c r="BH75" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="BI75" s="2"/>
-      <c r="BJ75" s="2"/>
-      <c r="BK75" s="2"/>
-      <c r="BL75" s="2"/>
-      <c r="BM75" s="2"/>
-      <c r="BN75" s="2"/>
-      <c r="BO75" s="2"/>
-      <c r="BP75" s="2"/>
-      <c r="BQ75" s="2"/>
-      <c r="BR75" s="2"/>
-      <c r="BS75" s="2"/>
-      <c r="BT75" s="2"/>
-      <c r="BU75" s="2"/>
-      <c r="BV75" s="2"/>
-      <c r="BW75" s="2"/>
-      <c r="BX75" s="5"/>
-      <c r="BY75" s="5"/>
-      <c r="BZ75" s="5"/>
-      <c r="CA75" s="5"/>
-      <c r="CB75" s="5"/>
-      <c r="CC75" s="5"/>
-      <c r="CD75" s="5"/>
-      <c r="CE75" s="5"/>
-      <c r="CF75" s="5"/>
-      <c r="CG75" s="5"/>
-      <c r="CH75" s="5"/>
-      <c r="CI75" s="5"/>
-      <c r="CJ75" s="5"/>
-      <c r="CK75" s="5"/>
-      <c r="CL75" s="5"/>
-      <c r="CM75" s="5"/>
-      <c r="CN75" s="5"/>
-      <c r="CO75" s="5"/>
-      <c r="CP75" s="5"/>
-      <c r="CQ75" s="5"/>
-      <c r="CR75" s="5"/>
-      <c r="CS75" s="5"/>
+        <v>176</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3"/>
+      <c r="AA75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB75" s="3"/>
+      <c r="AC75" s="3"/>
+      <c r="AD75" s="3"/>
+      <c r="AE75" s="3"/>
+      <c r="AF75" s="3"/>
+      <c r="AG75" s="3"/>
+      <c r="AH75" s="3"/>
+      <c r="AI75" s="3"/>
+      <c r="AJ75" s="3"/>
+      <c r="AK75" s="3"/>
+      <c r="AL75" s="3"/>
+      <c r="AM75" s="3"/>
+      <c r="AN75" s="3"/>
+      <c r="AO75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="AP75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="AQ75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="AS75" s="3"/>
+      <c r="AT75" s="3"/>
+      <c r="AU75" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="AV75" s="3"/>
+      <c r="AW75" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="AX75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="AY75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="AZ75" s="3"/>
+      <c r="BA75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="BB75" s="3"/>
+      <c r="BC75" s="3"/>
+      <c r="BD75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="BE75" s="3"/>
+      <c r="BF75" s="3"/>
+      <c r="BG75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="BH75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="BI75" s="3"/>
+      <c r="BJ75" s="3"/>
+      <c r="BK75" s="3"/>
+      <c r="BL75" s="3"/>
+      <c r="BM75" s="3"/>
+      <c r="BN75" s="3"/>
+      <c r="BO75" s="3"/>
+      <c r="BP75" s="3"/>
+      <c r="BQ75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="BR75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="BS75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="BT75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="BU75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="BV75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="BW75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="BX75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="BY75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="BZ75" s="3"/>
+      <c r="CA75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="CB75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="CC75" s="3"/>
+      <c r="CD75" s="3"/>
+      <c r="CE75" s="3"/>
+      <c r="CF75" s="3"/>
+      <c r="CG75" s="3"/>
+      <c r="CH75" s="3"/>
+      <c r="CI75" s="3"/>
+      <c r="CJ75" s="3"/>
+      <c r="CK75" s="3"/>
+      <c r="CL75" s="3"/>
+      <c r="CM75" s="3"/>
+      <c r="CN75" s="3"/>
+      <c r="CO75" s="3"/>
+      <c r="CP75" s="3"/>
+      <c r="CQ75" s="3"/>
+      <c r="CR75" s="3"/>
+      <c r="CS75" s="3" t="s">
+        <v>235</v>
+      </c>
       <c r="CT75" s="8"/>
     </row>
     <row r="76" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
-      <c r="T76" s="2"/>
-      <c r="U76" s="2"/>
-      <c r="V76" s="2"/>
-      <c r="W76" s="2"/>
-      <c r="X76" s="2"/>
-      <c r="Y76" s="2"/>
-      <c r="Z76" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA76" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB76" s="2"/>
-      <c r="AC76" s="2"/>
-      <c r="AD76" s="2"/>
-      <c r="AE76" s="2"/>
-      <c r="AF76" s="2"/>
-      <c r="AG76" s="2"/>
-      <c r="AH76" s="2"/>
-      <c r="AI76" s="2"/>
-      <c r="AJ76" s="2"/>
-      <c r="AK76" s="2"/>
-      <c r="AL76" s="2"/>
-      <c r="AM76" s="2"/>
-      <c r="AN76" s="2"/>
-      <c r="AO76" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AP76" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AQ76" s="2"/>
-      <c r="AR76" s="2"/>
-      <c r="AS76" s="2"/>
-      <c r="AT76" s="2"/>
-      <c r="AU76" s="2"/>
-      <c r="AV76" s="2"/>
-      <c r="AW76" s="2"/>
-      <c r="AX76" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AY76" s="2"/>
-      <c r="AZ76" s="2"/>
-      <c r="BA76" s="2"/>
-      <c r="BB76" s="2"/>
-      <c r="BC76" s="2"/>
-      <c r="BD76" s="2"/>
-      <c r="BE76" s="2"/>
-      <c r="BF76" s="2"/>
-      <c r="BG76" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="BH76" s="2"/>
-      <c r="BI76" s="2"/>
-      <c r="BJ76" s="2"/>
-      <c r="BK76" s="2"/>
-      <c r="BL76" s="2"/>
-      <c r="BM76" s="2"/>
-      <c r="BN76" s="2"/>
-      <c r="BO76" s="2"/>
-      <c r="BP76" s="2"/>
-      <c r="BQ76" s="2"/>
-      <c r="BR76" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="BS76" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="BT76" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="BU76" s="2"/>
-      <c r="BV76" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="BW76" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="BX76" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="BY76" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="BZ76" s="5"/>
-      <c r="CA76" s="5"/>
-      <c r="CB76" s="5"/>
-      <c r="CC76" s="5"/>
-      <c r="CD76" s="5"/>
-      <c r="CE76" s="5"/>
-      <c r="CF76" s="5"/>
-      <c r="CG76" s="5"/>
-      <c r="CH76" s="5"/>
-      <c r="CI76" s="5"/>
-      <c r="CJ76" s="5"/>
-      <c r="CK76" s="5"/>
-      <c r="CL76" s="5"/>
-      <c r="CM76" s="5"/>
-      <c r="CN76" s="5"/>
-      <c r="CO76" s="5"/>
-      <c r="CP76" s="5"/>
-      <c r="CQ76" s="5"/>
-      <c r="CR76" s="5"/>
-      <c r="CS76" s="5"/>
+        <v>154</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB76" s="3"/>
+      <c r="AC76" s="3"/>
+      <c r="AD76" s="3"/>
+      <c r="AE76" s="3"/>
+      <c r="AF76" s="3"/>
+      <c r="AG76" s="3"/>
+      <c r="AH76" s="3"/>
+      <c r="AI76" s="3"/>
+      <c r="AJ76" s="3"/>
+      <c r="AK76" s="3"/>
+      <c r="AL76" s="3"/>
+      <c r="AM76" s="3"/>
+      <c r="AN76" s="3"/>
+      <c r="AO76" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="AP76" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="AQ76" s="3"/>
+      <c r="AR76" s="3"/>
+      <c r="AS76" s="3"/>
+      <c r="AT76" s="3"/>
+      <c r="AU76" s="3"/>
+      <c r="AV76" s="3"/>
+      <c r="AW76" s="3"/>
+      <c r="AX76" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="AY76" s="3"/>
+      <c r="AZ76" s="3"/>
+      <c r="BA76" s="3"/>
+      <c r="BB76" s="3"/>
+      <c r="BC76" s="3"/>
+      <c r="BD76" s="3"/>
+      <c r="BE76" s="3"/>
+      <c r="BF76" s="3"/>
+      <c r="BG76" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="BH76" s="3"/>
+      <c r="BI76" s="3"/>
+      <c r="BJ76" s="3"/>
+      <c r="BK76" s="3"/>
+      <c r="BL76" s="3"/>
+      <c r="BM76" s="3"/>
+      <c r="BN76" s="3"/>
+      <c r="BO76" s="3"/>
+      <c r="BP76" s="3"/>
+      <c r="BQ76" s="3"/>
+      <c r="BR76" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="BS76" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="BT76" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="BU76" s="3"/>
+      <c r="BV76" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="BW76" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="BX76" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="BY76" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="BZ76" s="3"/>
+      <c r="CA76" s="3"/>
+      <c r="CB76" s="3"/>
+      <c r="CC76" s="3"/>
+      <c r="CD76" s="3"/>
+      <c r="CE76" s="3"/>
+      <c r="CF76" s="3"/>
+      <c r="CG76" s="3"/>
+      <c r="CH76" s="3"/>
+      <c r="CI76" s="3"/>
+      <c r="CJ76" s="3"/>
+      <c r="CK76" s="3"/>
+      <c r="CL76" s="3"/>
+      <c r="CM76" s="3"/>
+      <c r="CN76" s="3"/>
+      <c r="CO76" s="3"/>
+      <c r="CP76" s="3"/>
+      <c r="CQ76" s="3"/>
+      <c r="CR76" s="3"/>
+      <c r="CS76" s="3"/>
       <c r="CT76" s="8"/>
     </row>
     <row r="77" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
-      <c r="T77" s="2"/>
-      <c r="U77" s="2"/>
-      <c r="V77" s="2"/>
-      <c r="W77" s="2"/>
-      <c r="X77" s="2"/>
-      <c r="Y77" s="2"/>
-      <c r="Z77" s="2"/>
-      <c r="AA77" s="2"/>
-      <c r="AB77" s="2"/>
-      <c r="AC77" s="2"/>
-      <c r="AD77" s="2"/>
-      <c r="AE77" s="2"/>
-      <c r="AF77" s="2"/>
-      <c r="AG77" s="2"/>
-      <c r="AH77" s="2"/>
-      <c r="AI77" s="2"/>
-      <c r="AJ77" s="2"/>
-      <c r="AK77" s="2"/>
-      <c r="AL77" s="2"/>
-      <c r="AM77" s="2"/>
-      <c r="AN77" s="2"/>
-      <c r="AO77" s="2"/>
-      <c r="AP77" s="2"/>
-      <c r="AQ77" s="2"/>
-      <c r="AR77" s="2"/>
-      <c r="AS77" s="2"/>
-      <c r="AT77" s="2"/>
-      <c r="AU77" s="2"/>
-      <c r="AV77" s="2"/>
-      <c r="AW77" s="2"/>
-      <c r="AX77" s="2"/>
-      <c r="AY77" s="2"/>
-      <c r="AZ77" s="2"/>
-      <c r="BA77" s="2"/>
-      <c r="BB77" s="2"/>
-      <c r="BC77" s="2"/>
-      <c r="BD77" s="2"/>
-      <c r="BE77" s="2"/>
-      <c r="BF77" s="2"/>
-      <c r="BG77" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="BH77" s="2"/>
-      <c r="BI77" s="2"/>
-      <c r="BJ77" s="2"/>
-      <c r="BK77" s="2"/>
-      <c r="BL77" s="2"/>
-      <c r="BM77" s="2"/>
-      <c r="BN77" s="2"/>
-      <c r="BO77" s="2"/>
-      <c r="BP77" s="2"/>
-      <c r="BQ77" s="2"/>
-      <c r="BR77" s="2"/>
-      <c r="BS77" s="2"/>
-      <c r="BT77" s="2"/>
-      <c r="BU77" s="2"/>
-      <c r="BV77" s="2"/>
-      <c r="BW77" s="2"/>
-      <c r="BX77" s="5"/>
-      <c r="BY77" s="5"/>
-      <c r="BZ77" s="5"/>
-      <c r="CA77" s="5"/>
-      <c r="CB77" s="5"/>
-      <c r="CC77" s="5"/>
-      <c r="CD77" s="5"/>
-      <c r="CE77" s="5"/>
-      <c r="CF77" s="5"/>
-      <c r="CG77" s="5"/>
-      <c r="CH77" s="5"/>
-      <c r="CI77" s="5"/>
-      <c r="CJ77" s="5"/>
-      <c r="CK77" s="5"/>
-      <c r="CL77" s="5"/>
-      <c r="CM77" s="5"/>
-      <c r="CN77" s="5"/>
-      <c r="CO77" s="5"/>
-      <c r="CP77" s="5"/>
-      <c r="CQ77" s="5"/>
-      <c r="CR77" s="5"/>
-      <c r="CS77" s="5"/>
+        <v>177</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3"/>
+      <c r="AA77" s="3"/>
+      <c r="AB77" s="3"/>
+      <c r="AC77" s="3"/>
+      <c r="AD77" s="3"/>
+      <c r="AE77" s="3"/>
+      <c r="AF77" s="3"/>
+      <c r="AG77" s="3"/>
+      <c r="AH77" s="3"/>
+      <c r="AI77" s="3"/>
+      <c r="AJ77" s="3"/>
+      <c r="AK77" s="3"/>
+      <c r="AL77" s="3"/>
+      <c r="AM77" s="3"/>
+      <c r="AN77" s="3"/>
+      <c r="AO77" s="3"/>
+      <c r="AP77" s="3"/>
+      <c r="AQ77" s="3"/>
+      <c r="AR77" s="3"/>
+      <c r="AS77" s="3"/>
+      <c r="AT77" s="3"/>
+      <c r="AU77" s="3"/>
+      <c r="AV77" s="3"/>
+      <c r="AW77" s="3"/>
+      <c r="AX77" s="3"/>
+      <c r="AY77" s="3"/>
+      <c r="AZ77" s="3"/>
+      <c r="BA77" s="3"/>
+      <c r="BB77" s="3"/>
+      <c r="BC77" s="3"/>
+      <c r="BD77" s="3"/>
+      <c r="BE77" s="3"/>
+      <c r="BF77" s="3"/>
+      <c r="BG77" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="BH77" s="3"/>
+      <c r="BI77" s="3"/>
+      <c r="BJ77" s="3"/>
+      <c r="BK77" s="3"/>
+      <c r="BL77" s="3"/>
+      <c r="BM77" s="3"/>
+      <c r="BN77" s="3"/>
+      <c r="BO77" s="3"/>
+      <c r="BP77" s="3"/>
+      <c r="BQ77" s="3"/>
+      <c r="BR77" s="3"/>
+      <c r="BS77" s="3"/>
+      <c r="BT77" s="3"/>
+      <c r="BU77" s="3"/>
+      <c r="BV77" s="3"/>
+      <c r="BW77" s="3"/>
+      <c r="BX77" s="3"/>
+      <c r="BY77" s="3"/>
+      <c r="BZ77" s="3"/>
+      <c r="CA77" s="3"/>
+      <c r="CB77" s="3"/>
+      <c r="CC77" s="3"/>
+      <c r="CD77" s="3"/>
+      <c r="CE77" s="3"/>
+      <c r="CF77" s="3"/>
+      <c r="CG77" s="3"/>
+      <c r="CH77" s="3"/>
+      <c r="CI77" s="3"/>
+      <c r="CJ77" s="3"/>
+      <c r="CK77" s="3"/>
+      <c r="CL77" s="3"/>
+      <c r="CM77" s="3"/>
+      <c r="CN77" s="3"/>
+      <c r="CO77" s="3"/>
+      <c r="CP77" s="3"/>
+      <c r="CQ77" s="3"/>
+      <c r="CR77" s="3"/>
+      <c r="CS77" s="3"/>
       <c r="CT77" s="8"/>
     </row>
     <row r="78" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
-      <c r="T78" s="2"/>
-      <c r="U78" s="2"/>
-      <c r="V78" s="2"/>
-      <c r="W78" s="2"/>
-      <c r="X78" s="2"/>
-      <c r="Y78" s="2"/>
-      <c r="Z78" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA78" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB78" s="3"/>
+      <c r="AC78" s="3"/>
+      <c r="AD78" s="3"/>
+      <c r="AE78" s="3"/>
+      <c r="AF78" s="3"/>
+      <c r="AG78" s="3"/>
+      <c r="AH78" s="3"/>
+      <c r="AI78" s="3"/>
+      <c r="AJ78" s="3"/>
+      <c r="AK78" s="3"/>
+      <c r="AL78" s="3"/>
+      <c r="AM78" s="3"/>
+      <c r="AN78" s="3"/>
+      <c r="AO78" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="AA78" s="2" t="s">
+      <c r="AP78" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="AQ78" s="3"/>
+      <c r="AR78" s="3"/>
+      <c r="AS78" s="3"/>
+      <c r="AT78" s="3"/>
+      <c r="AU78" s="3"/>
+      <c r="AV78" s="3"/>
+      <c r="AW78" s="3"/>
+      <c r="AX78" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="AB78" s="2"/>
-      <c r="AC78" s="2"/>
-      <c r="AD78" s="2"/>
-      <c r="AE78" s="2"/>
-      <c r="AF78" s="2"/>
-      <c r="AG78" s="2"/>
-      <c r="AH78" s="2"/>
-      <c r="AI78" s="2"/>
-      <c r="AJ78" s="2"/>
-      <c r="AK78" s="2"/>
-      <c r="AL78" s="2"/>
-      <c r="AM78" s="2"/>
-      <c r="AN78" s="2"/>
-      <c r="AO78" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="AP78" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="AQ78" s="2"/>
-      <c r="AR78" s="2"/>
-      <c r="AS78" s="2"/>
-      <c r="AT78" s="2"/>
-      <c r="AU78" s="2"/>
-      <c r="AV78" s="2"/>
-      <c r="AW78" s="2"/>
-      <c r="AX78" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="AY78" s="2"/>
-      <c r="AZ78" s="2"/>
-      <c r="BA78" s="2"/>
-      <c r="BB78" s="2"/>
-      <c r="BC78" s="2"/>
-      <c r="BD78" s="2"/>
-      <c r="BE78" s="2"/>
-      <c r="BF78" s="2"/>
-      <c r="BG78" s="2"/>
-      <c r="BH78" s="2"/>
-      <c r="BI78" s="2"/>
-      <c r="BJ78" s="2"/>
-      <c r="BK78" s="2"/>
-      <c r="BL78" s="2"/>
-      <c r="BM78" s="2"/>
-      <c r="BN78" s="2"/>
-      <c r="BO78" s="2"/>
-      <c r="BP78" s="2"/>
-      <c r="BQ78" s="2"/>
-      <c r="BR78" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="BS78" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="BT78" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="BU78" s="2"/>
-      <c r="BV78" s="2" t="s">
+      <c r="AY78" s="3"/>
+      <c r="AZ78" s="3"/>
+      <c r="BA78" s="3"/>
+      <c r="BB78" s="3"/>
+      <c r="BC78" s="3"/>
+      <c r="BD78" s="3"/>
+      <c r="BE78" s="3"/>
+      <c r="BF78" s="3"/>
+      <c r="BG78" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="BH78" s="3"/>
+      <c r="BI78" s="3"/>
+      <c r="BJ78" s="3"/>
+      <c r="BK78" s="3"/>
+      <c r="BL78" s="3"/>
+      <c r="BM78" s="3"/>
+      <c r="BN78" s="3"/>
+      <c r="BO78" s="3"/>
+      <c r="BP78" s="3"/>
+      <c r="BQ78" s="3"/>
+      <c r="BR78" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="BS78" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="BT78" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="BU78" s="3"/>
+      <c r="BV78" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="BW78" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="BX78" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="BW78" s="2" t="s">
+      <c r="BY78" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="BX78" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="BY78" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="BZ78" s="5"/>
-      <c r="CA78" s="5"/>
-      <c r="CB78" s="5"/>
-      <c r="CC78" s="5"/>
-      <c r="CD78" s="5"/>
-      <c r="CE78" s="5"/>
-      <c r="CF78" s="5"/>
-      <c r="CG78" s="5"/>
-      <c r="CH78" s="5"/>
-      <c r="CI78" s="5"/>
-      <c r="CJ78" s="5"/>
-      <c r="CK78" s="5"/>
-      <c r="CL78" s="5"/>
-      <c r="CM78" s="5"/>
-      <c r="CN78" s="5"/>
-      <c r="CO78" s="5"/>
-      <c r="CP78" s="5"/>
-      <c r="CQ78" s="5"/>
-      <c r="CR78" s="5"/>
-      <c r="CS78" s="5"/>
+      <c r="BZ78" s="3"/>
+      <c r="CA78" s="3"/>
+      <c r="CB78" s="3"/>
+      <c r="CC78" s="3"/>
+      <c r="CD78" s="3"/>
+      <c r="CE78" s="3"/>
+      <c r="CF78" s="3"/>
+      <c r="CG78" s="3"/>
+      <c r="CH78" s="3"/>
+      <c r="CI78" s="3"/>
+      <c r="CJ78" s="3"/>
+      <c r="CK78" s="3"/>
+      <c r="CL78" s="3"/>
+      <c r="CM78" s="3"/>
+      <c r="CN78" s="3"/>
+      <c r="CO78" s="3"/>
+      <c r="CP78" s="3"/>
+      <c r="CQ78" s="3"/>
+      <c r="CR78" s="3"/>
+      <c r="CS78" s="3"/>
       <c r="CT78" s="8"/>
     </row>
     <row r="79" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
-      <c r="T79" s="2"/>
-      <c r="U79" s="2"/>
-      <c r="V79" s="2"/>
-      <c r="W79" s="2"/>
-      <c r="X79" s="2"/>
-      <c r="Y79" s="2"/>
-      <c r="Z79" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA79" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB79" s="3"/>
+      <c r="AC79" s="3"/>
+      <c r="AD79" s="3"/>
+      <c r="AE79" s="3"/>
+      <c r="AF79" s="3"/>
+      <c r="AG79" s="3"/>
+      <c r="AH79" s="3"/>
+      <c r="AI79" s="3"/>
+      <c r="AJ79" s="3"/>
+      <c r="AK79" s="3"/>
+      <c r="AL79" s="3"/>
+      <c r="AM79" s="3"/>
+      <c r="AN79" s="3"/>
+      <c r="AO79" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="AA79" s="2" t="s">
+      <c r="AP79" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="AQ79" s="3"/>
+      <c r="AR79" s="3"/>
+      <c r="AS79" s="3"/>
+      <c r="AT79" s="3"/>
+      <c r="AU79" s="3"/>
+      <c r="AV79" s="3"/>
+      <c r="AW79" s="3"/>
+      <c r="AX79" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="AB79" s="2"/>
-      <c r="AC79" s="2"/>
-      <c r="AD79" s="2"/>
-      <c r="AE79" s="2"/>
-      <c r="AF79" s="2"/>
-      <c r="AG79" s="2"/>
-      <c r="AH79" s="2"/>
-      <c r="AI79" s="2"/>
-      <c r="AJ79" s="2"/>
-      <c r="AK79" s="2"/>
-      <c r="AL79" s="2"/>
-      <c r="AM79" s="2"/>
-      <c r="AN79" s="2"/>
-      <c r="AO79" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AP79" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AQ79" s="2"/>
-      <c r="AR79" s="2"/>
-      <c r="AS79" s="2"/>
-      <c r="AT79" s="2"/>
-      <c r="AU79" s="2"/>
-      <c r="AV79" s="2"/>
-      <c r="AW79" s="2"/>
-      <c r="AX79" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="AY79" s="2"/>
-      <c r="AZ79" s="2"/>
-      <c r="BA79" s="2"/>
-      <c r="BB79" s="2"/>
-      <c r="BC79" s="2"/>
-      <c r="BD79" s="2"/>
-      <c r="BE79" s="2"/>
-      <c r="BF79" s="2"/>
-      <c r="BG79" s="2"/>
-      <c r="BH79" s="2"/>
-      <c r="BI79" s="2"/>
-      <c r="BJ79" s="2"/>
-      <c r="BK79" s="2"/>
-      <c r="BL79" s="2"/>
-      <c r="BM79" s="2"/>
-      <c r="BN79" s="2"/>
-      <c r="BO79" s="2"/>
-      <c r="BP79" s="2"/>
-      <c r="BQ79" s="2"/>
-      <c r="BR79" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="BS79" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="BT79" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="BU79" s="2"/>
-      <c r="BV79" s="2" t="s">
+      <c r="AY79" s="3"/>
+      <c r="AZ79" s="3"/>
+      <c r="BA79" s="3"/>
+      <c r="BB79" s="3"/>
+      <c r="BC79" s="3"/>
+      <c r="BD79" s="3"/>
+      <c r="BE79" s="3"/>
+      <c r="BF79" s="3"/>
+      <c r="BG79" s="3"/>
+      <c r="BH79" s="3"/>
+      <c r="BI79" s="3"/>
+      <c r="BJ79" s="3"/>
+      <c r="BK79" s="3"/>
+      <c r="BL79" s="3"/>
+      <c r="BM79" s="3"/>
+      <c r="BN79" s="3"/>
+      <c r="BO79" s="3"/>
+      <c r="BP79" s="3"/>
+      <c r="BQ79" s="3"/>
+      <c r="BR79" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="BS79" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="BT79" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="BU79" s="3"/>
+      <c r="BV79" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="BW79" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="BX79" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="BW79" s="2" t="s">
+      <c r="BY79" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="BX79" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="BY79" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="BZ79" s="5"/>
-      <c r="CA79" s="5"/>
-      <c r="CB79" s="5"/>
-      <c r="CC79" s="5"/>
-      <c r="CD79" s="5"/>
-      <c r="CE79" s="5"/>
-      <c r="CF79" s="5"/>
-      <c r="CG79" s="5"/>
-      <c r="CH79" s="5"/>
-      <c r="CI79" s="5"/>
-      <c r="CJ79" s="5"/>
-      <c r="CK79" s="5"/>
-      <c r="CL79" s="5"/>
-      <c r="CM79" s="5"/>
-      <c r="CN79" s="5"/>
-      <c r="CO79" s="5"/>
-      <c r="CP79" s="5"/>
-      <c r="CQ79" s="5"/>
-      <c r="CR79" s="5"/>
-      <c r="CS79" s="5"/>
+      <c r="BZ79" s="3"/>
+      <c r="CA79" s="3"/>
+      <c r="CB79" s="3"/>
+      <c r="CC79" s="3"/>
+      <c r="CD79" s="3"/>
+      <c r="CE79" s="3"/>
+      <c r="CF79" s="3"/>
+      <c r="CG79" s="3"/>
+      <c r="CH79" s="3"/>
+      <c r="CI79" s="3"/>
+      <c r="CJ79" s="3"/>
+      <c r="CK79" s="3"/>
+      <c r="CL79" s="3"/>
+      <c r="CM79" s="3"/>
+      <c r="CN79" s="3"/>
+      <c r="CO79" s="3"/>
+      <c r="CP79" s="3"/>
+      <c r="CQ79" s="3"/>
+      <c r="CR79" s="3"/>
+      <c r="CS79" s="3"/>
       <c r="CT79" s="8"/>
     </row>
     <row r="80" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
-      <c r="T80" s="2"/>
-      <c r="U80" s="2"/>
-      <c r="V80" s="2"/>
-      <c r="W80" s="2"/>
-      <c r="X80" s="2"/>
-      <c r="Y80" s="2"/>
-      <c r="Z80" s="2"/>
-      <c r="AA80" s="2"/>
-      <c r="AB80" s="2"/>
-      <c r="AC80" s="2"/>
-      <c r="AD80" s="2"/>
-      <c r="AE80" s="2"/>
-      <c r="AF80" s="2"/>
-      <c r="AG80" s="2"/>
-      <c r="AH80" s="2"/>
-      <c r="AI80" s="2"/>
-      <c r="AJ80" s="2"/>
-      <c r="AK80" s="2"/>
-      <c r="AL80" s="2"/>
-      <c r="AM80" s="2"/>
-      <c r="AN80" s="2"/>
-      <c r="AO80" s="2"/>
-      <c r="AP80" s="2"/>
-      <c r="AQ80" s="2"/>
-      <c r="AR80" s="2"/>
-      <c r="AS80" s="2"/>
-      <c r="AT80" s="2"/>
-      <c r="AU80" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3"/>
+      <c r="AA80" s="3"/>
+      <c r="AB80" s="3"/>
+      <c r="AC80" s="3"/>
+      <c r="AD80" s="3"/>
+      <c r="AE80" s="3"/>
+      <c r="AF80" s="3"/>
+      <c r="AG80" s="3"/>
+      <c r="AH80" s="3"/>
+      <c r="AI80" s="3"/>
+      <c r="AJ80" s="3"/>
+      <c r="AK80" s="3"/>
+      <c r="AL80" s="3"/>
+      <c r="AM80" s="3"/>
+      <c r="AN80" s="3"/>
+      <c r="AO80" s="3"/>
+      <c r="AP80" s="3"/>
+      <c r="AQ80" s="3"/>
+      <c r="AR80" s="3"/>
+      <c r="AS80" s="3"/>
+      <c r="AT80" s="3"/>
+      <c r="AU80" s="3"/>
       <c r="AV80" s="3"/>
-      <c r="AW80" s="2"/>
-      <c r="AX80" s="2"/>
-      <c r="AY80" s="2"/>
-      <c r="AZ80" s="2"/>
-      <c r="BA80" s="2"/>
-      <c r="BB80" s="2"/>
-      <c r="BC80" s="2"/>
-      <c r="BD80" s="2"/>
-      <c r="BE80" s="2"/>
-      <c r="BF80" s="2"/>
-      <c r="BG80" s="2"/>
-      <c r="BH80" s="2"/>
-      <c r="BI80" s="2"/>
-      <c r="BJ80" s="2"/>
-      <c r="BK80" s="2"/>
-      <c r="BL80" s="2"/>
-      <c r="BM80" s="2"/>
-      <c r="BN80" s="2"/>
-      <c r="BO80" s="2"/>
-      <c r="BP80" s="2"/>
-      <c r="BQ80" s="2"/>
-      <c r="BR80" s="2"/>
-      <c r="BS80" s="2"/>
-      <c r="BT80" s="2"/>
-      <c r="BU80" s="2"/>
-      <c r="BV80" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="BW80" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="BX80" s="5"/>
-      <c r="BY80" s="5"/>
-      <c r="BZ80" s="5"/>
-      <c r="CA80" s="5"/>
-      <c r="CB80" s="5"/>
-      <c r="CC80" s="5"/>
-      <c r="CD80" s="5"/>
-      <c r="CE80" s="5"/>
-      <c r="CF80" s="5"/>
-      <c r="CG80" s="5"/>
-      <c r="CH80" s="5"/>
-      <c r="CI80" s="5"/>
-      <c r="CJ80" s="5"/>
-      <c r="CK80" s="5"/>
-      <c r="CL80" s="5"/>
-      <c r="CM80" s="5"/>
-      <c r="CN80" s="5"/>
-      <c r="CO80" s="5"/>
-      <c r="CP80" s="5"/>
-      <c r="CQ80" s="5"/>
-      <c r="CR80" s="5"/>
-      <c r="CS80" s="5"/>
+      <c r="AW80" s="3"/>
+      <c r="AX80" s="3"/>
+      <c r="AY80" s="3"/>
+      <c r="AZ80" s="3"/>
+      <c r="BA80" s="3"/>
+      <c r="BB80" s="3"/>
+      <c r="BC80" s="3"/>
+      <c r="BD80" s="3"/>
+      <c r="BE80" s="3"/>
+      <c r="BF80" s="3"/>
+      <c r="BG80" s="3"/>
+      <c r="BH80" s="3"/>
+      <c r="BI80" s="3"/>
+      <c r="BJ80" s="3"/>
+      <c r="BK80" s="3"/>
+      <c r="BL80" s="3"/>
+      <c r="BM80" s="3"/>
+      <c r="BN80" s="3"/>
+      <c r="BO80" s="3"/>
+      <c r="BP80" s="3"/>
+      <c r="BQ80" s="3"/>
+      <c r="BR80" s="3"/>
+      <c r="BS80" s="3"/>
+      <c r="BT80" s="3"/>
+      <c r="BU80" s="3"/>
+      <c r="BV80" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="BW80" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="BX80" s="3"/>
+      <c r="BY80" s="3"/>
+      <c r="BZ80" s="3"/>
+      <c r="CA80" s="3"/>
+      <c r="CB80" s="3"/>
+      <c r="CC80" s="3"/>
+      <c r="CD80" s="3"/>
+      <c r="CE80" s="3"/>
+      <c r="CF80" s="3"/>
+      <c r="CG80" s="3"/>
+      <c r="CH80" s="3"/>
+      <c r="CI80" s="3"/>
+      <c r="CJ80" s="3"/>
+      <c r="CK80" s="3"/>
+      <c r="CL80" s="3"/>
+      <c r="CM80" s="3"/>
+      <c r="CN80" s="3"/>
+      <c r="CO80" s="3"/>
+      <c r="CP80" s="3"/>
+      <c r="CQ80" s="3"/>
+      <c r="CR80" s="3"/>
+      <c r="CS80" s="3"/>
       <c r="CT80" s="8"/>
     </row>
     <row r="81" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
-      <c r="S81" s="2"/>
-      <c r="T81" s="2"/>
-      <c r="U81" s="2"/>
-      <c r="V81" s="2"/>
-      <c r="W81" s="2"/>
-      <c r="X81" s="2"/>
-      <c r="Y81" s="2"/>
-      <c r="Z81" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="AA81" s="2"/>
-      <c r="AB81" s="2"/>
-      <c r="AC81" s="2"/>
-      <c r="AD81" s="2"/>
-      <c r="AE81" s="2"/>
-      <c r="AF81" s="2"/>
-      <c r="AG81" s="2"/>
-      <c r="AH81" s="2"/>
-      <c r="AI81" s="2"/>
-      <c r="AJ81" s="2"/>
-      <c r="AK81" s="2"/>
-      <c r="AL81" s="2"/>
-      <c r="AM81" s="2"/>
-      <c r="AN81" s="2"/>
-      <c r="AO81" s="2"/>
-      <c r="AP81" s="2"/>
-      <c r="AQ81" s="2"/>
-      <c r="AR81" s="2"/>
-      <c r="AS81" s="2"/>
-      <c r="AT81" s="2"/>
-      <c r="AU81" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA81" s="3"/>
+      <c r="AB81" s="3"/>
+      <c r="AC81" s="3"/>
+      <c r="AD81" s="3"/>
+      <c r="AE81" s="3"/>
+      <c r="AF81" s="3"/>
+      <c r="AG81" s="3"/>
+      <c r="AH81" s="3"/>
+      <c r="AI81" s="3"/>
+      <c r="AJ81" s="3"/>
+      <c r="AK81" s="3"/>
+      <c r="AL81" s="3"/>
+      <c r="AM81" s="3"/>
+      <c r="AN81" s="3"/>
+      <c r="AO81" s="3"/>
+      <c r="AP81" s="3"/>
+      <c r="AQ81" s="3"/>
+      <c r="AR81" s="3"/>
+      <c r="AS81" s="3"/>
+      <c r="AT81" s="3"/>
+      <c r="AU81" s="3"/>
       <c r="AV81" s="3"/>
-      <c r="AW81" s="2"/>
-      <c r="AX81" s="2"/>
-      <c r="AY81" s="2"/>
-      <c r="AZ81" s="2"/>
-      <c r="BA81" s="2"/>
-      <c r="BB81" s="2"/>
-      <c r="BC81" s="2"/>
-      <c r="BD81" s="2"/>
-      <c r="BE81" s="2"/>
-      <c r="BF81" s="2"/>
-      <c r="BG81" s="2"/>
-      <c r="BH81" s="2"/>
-      <c r="BI81" s="2"/>
-      <c r="BJ81" s="2"/>
-      <c r="BK81" s="2"/>
-      <c r="BL81" s="2"/>
-      <c r="BM81" s="2"/>
-      <c r="BN81" s="2"/>
-      <c r="BO81" s="2"/>
-      <c r="BP81" s="2"/>
-      <c r="BQ81" s="2"/>
-      <c r="BR81" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="BS81" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="BT81" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BU81" s="2"/>
-      <c r="BV81" s="2"/>
-      <c r="BW81" s="2"/>
-      <c r="BX81" s="5"/>
-      <c r="BY81" s="5"/>
-      <c r="BZ81" s="5"/>
-      <c r="CA81" s="5"/>
-      <c r="CB81" s="5"/>
-      <c r="CC81" s="5"/>
-      <c r="CD81" s="5"/>
-      <c r="CE81" s="5"/>
-      <c r="CF81" s="5"/>
-      <c r="CG81" s="5"/>
-      <c r="CH81" s="5"/>
-      <c r="CI81" s="5"/>
-      <c r="CJ81" s="5"/>
-      <c r="CK81" s="5"/>
-      <c r="CL81" s="5"/>
-      <c r="CM81" s="5"/>
-      <c r="CN81" s="5"/>
-      <c r="CO81" s="5"/>
-      <c r="CP81" s="5"/>
-      <c r="CQ81" s="5"/>
-      <c r="CR81" s="5"/>
-      <c r="CS81" s="5"/>
+      <c r="AW81" s="3"/>
+      <c r="AX81" s="3"/>
+      <c r="AY81" s="3"/>
+      <c r="AZ81" s="3"/>
+      <c r="BA81" s="3"/>
+      <c r="BB81" s="3"/>
+      <c r="BC81" s="3"/>
+      <c r="BD81" s="3"/>
+      <c r="BE81" s="3"/>
+      <c r="BF81" s="3"/>
+      <c r="BG81" s="3"/>
+      <c r="BH81" s="3"/>
+      <c r="BI81" s="3"/>
+      <c r="BJ81" s="3"/>
+      <c r="BK81" s="3"/>
+      <c r="BL81" s="3"/>
+      <c r="BM81" s="3"/>
+      <c r="BN81" s="3"/>
+      <c r="BO81" s="3"/>
+      <c r="BP81" s="3"/>
+      <c r="BQ81" s="3"/>
+      <c r="BR81" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="BS81" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="BT81" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="BU81" s="3"/>
+      <c r="BV81" s="3"/>
+      <c r="BW81" s="3"/>
+      <c r="BX81" s="3"/>
+      <c r="BY81" s="3"/>
+      <c r="BZ81" s="3"/>
+      <c r="CA81" s="3"/>
+      <c r="CB81" s="3"/>
+      <c r="CC81" s="3"/>
+      <c r="CD81" s="3"/>
+      <c r="CE81" s="3"/>
+      <c r="CF81" s="3"/>
+      <c r="CG81" s="3"/>
+      <c r="CH81" s="3"/>
+      <c r="CI81" s="3"/>
+      <c r="CJ81" s="3"/>
+      <c r="CK81" s="3"/>
+      <c r="CL81" s="3"/>
+      <c r="CM81" s="3"/>
+      <c r="CN81" s="3"/>
+      <c r="CO81" s="3"/>
+      <c r="CP81" s="3"/>
+      <c r="CQ81" s="3"/>
+      <c r="CR81" s="3"/>
+      <c r="CS81" s="3"/>
       <c r="CT81" s="8"/>
     </row>
     <row r="82" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
-      <c r="S82" s="2"/>
-      <c r="T82" s="2"/>
-      <c r="U82" s="2"/>
-      <c r="V82" s="2"/>
-      <c r="W82" s="2"/>
-      <c r="X82" s="2"/>
-      <c r="Y82" s="2"/>
-      <c r="Z82" s="2"/>
-      <c r="AA82" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="AB82" s="2"/>
-      <c r="AC82" s="2"/>
-      <c r="AD82" s="2"/>
-      <c r="AE82" s="2"/>
-      <c r="AF82" s="2"/>
-      <c r="AG82" s="2"/>
-      <c r="AH82" s="2"/>
-      <c r="AI82" s="2"/>
-      <c r="AJ82" s="2"/>
-      <c r="AK82" s="2"/>
-      <c r="AL82" s="2"/>
-      <c r="AM82" s="2"/>
-      <c r="AN82" s="2"/>
-      <c r="AO82" s="2"/>
-      <c r="AP82" s="2"/>
-      <c r="AQ82" s="2"/>
-      <c r="AR82" s="2"/>
-      <c r="AS82" s="2"/>
-      <c r="AT82" s="2"/>
-      <c r="AU82" s="2"/>
-      <c r="AV82" s="2"/>
-      <c r="AW82" s="2"/>
-      <c r="AX82" s="2"/>
-      <c r="AY82" s="2"/>
-      <c r="AZ82" s="2"/>
-      <c r="BA82" s="2"/>
-      <c r="BB82" s="2"/>
-      <c r="BC82" s="2"/>
-      <c r="BD82" s="2"/>
-      <c r="BE82" s="2"/>
-      <c r="BF82" s="2"/>
-      <c r="BG82" s="2"/>
-      <c r="BH82" s="2"/>
-      <c r="BI82" s="2"/>
-      <c r="BJ82" s="2"/>
-      <c r="BK82" s="2"/>
-      <c r="BL82" s="2"/>
-      <c r="BM82" s="2"/>
-      <c r="BN82" s="2"/>
-      <c r="BO82" s="2"/>
-      <c r="BP82" s="2"/>
-      <c r="BQ82" s="2"/>
-      <c r="BR82" s="2"/>
-      <c r="BS82" s="2"/>
-      <c r="BT82" s="2"/>
-      <c r="BU82" s="2"/>
-      <c r="BV82" s="2"/>
-      <c r="BW82" s="2"/>
-      <c r="BX82" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="BY82" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="BZ82" s="5"/>
-      <c r="CA82" s="5"/>
-      <c r="CB82" s="5"/>
-      <c r="CC82" s="5"/>
-      <c r="CD82" s="5"/>
-      <c r="CE82" s="5"/>
-      <c r="CF82" s="5"/>
-      <c r="CG82" s="5"/>
-      <c r="CH82" s="5"/>
-      <c r="CI82" s="5"/>
-      <c r="CJ82" s="5"/>
-      <c r="CK82" s="5"/>
-      <c r="CL82" s="5"/>
-      <c r="CM82" s="5"/>
-      <c r="CN82" s="5"/>
-      <c r="CO82" s="5"/>
-      <c r="CP82" s="5"/>
-      <c r="CQ82" s="5"/>
-      <c r="CR82" s="5"/>
-      <c r="CS82" s="5"/>
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+      <c r="AG82" s="3"/>
+      <c r="AH82" s="3"/>
+      <c r="AI82" s="3"/>
+      <c r="AJ82" s="3"/>
+      <c r="AK82" s="3"/>
+      <c r="AL82" s="3"/>
+      <c r="AM82" s="3"/>
+      <c r="AN82" s="3"/>
+      <c r="AO82" s="3"/>
+      <c r="AP82" s="3"/>
+      <c r="AQ82" s="3"/>
+      <c r="AR82" s="3"/>
+      <c r="AS82" s="3"/>
+      <c r="AT82" s="3"/>
+      <c r="AU82" s="3"/>
+      <c r="AV82" s="3"/>
+      <c r="AW82" s="3"/>
+      <c r="AX82" s="3"/>
+      <c r="AY82" s="3"/>
+      <c r="AZ82" s="3"/>
+      <c r="BA82" s="3"/>
+      <c r="BB82" s="3"/>
+      <c r="BC82" s="3"/>
+      <c r="BD82" s="3"/>
+      <c r="BE82" s="3"/>
+      <c r="BF82" s="3"/>
+      <c r="BG82" s="3"/>
+      <c r="BH82" s="3"/>
+      <c r="BI82" s="3"/>
+      <c r="BJ82" s="3"/>
+      <c r="BK82" s="3"/>
+      <c r="BL82" s="3"/>
+      <c r="BM82" s="3"/>
+      <c r="BN82" s="3"/>
+      <c r="BO82" s="3"/>
+      <c r="BP82" s="3"/>
+      <c r="BQ82" s="3"/>
+      <c r="BR82" s="3"/>
+      <c r="BS82" s="3"/>
+      <c r="BT82" s="3"/>
+      <c r="BU82" s="3"/>
+      <c r="BV82" s="3"/>
+      <c r="BW82" s="3"/>
+      <c r="BX82" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="BY82" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="BZ82" s="3"/>
+      <c r="CA82" s="3"/>
+      <c r="CB82" s="3"/>
+      <c r="CC82" s="3"/>
+      <c r="CD82" s="3"/>
+      <c r="CE82" s="3"/>
+      <c r="CF82" s="3"/>
+      <c r="CG82" s="3"/>
+      <c r="CH82" s="3"/>
+      <c r="CI82" s="3"/>
+      <c r="CJ82" s="3"/>
+      <c r="CK82" s="3"/>
+      <c r="CL82" s="3"/>
+      <c r="CM82" s="3"/>
+      <c r="CN82" s="3"/>
+      <c r="CO82" s="3"/>
+      <c r="CP82" s="3"/>
+      <c r="CQ82" s="3"/>
+      <c r="CR82" s="3"/>
+      <c r="CS82" s="3"/>
       <c r="CT82" s="8"/>
     </row>
     <row r="83" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
-      <c r="S83" s="2"/>
-      <c r="T83" s="2"/>
-      <c r="U83" s="2"/>
-      <c r="V83" s="2"/>
-      <c r="W83" s="2"/>
-      <c r="X83" s="2"/>
-      <c r="Y83" s="2"/>
-      <c r="Z83" s="2"/>
-      <c r="AA83" s="2"/>
-      <c r="AB83" s="2"/>
-      <c r="AC83" s="2"/>
-      <c r="AD83" s="2"/>
-      <c r="AE83" s="2"/>
-      <c r="AF83" s="2"/>
-      <c r="AG83" s="2"/>
-      <c r="AH83" s="2"/>
-      <c r="AI83" s="2"/>
-      <c r="AJ83" s="2"/>
-      <c r="AK83" s="2"/>
-      <c r="AL83" s="2"/>
-      <c r="AM83" s="2"/>
-      <c r="AN83" s="2"/>
-      <c r="AO83" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="AP83" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="AQ83" s="2"/>
-      <c r="AR83" s="2"/>
-      <c r="AS83" s="2"/>
-      <c r="AT83" s="2"/>
-      <c r="AU83" s="2"/>
-      <c r="AV83" s="2"/>
-      <c r="AW83" s="2"/>
-      <c r="AX83" s="2"/>
-      <c r="AY83" s="2"/>
-      <c r="AZ83" s="2"/>
-      <c r="BA83" s="2"/>
-      <c r="BB83" s="2"/>
-      <c r="BC83" s="2"/>
-      <c r="BD83" s="2"/>
-      <c r="BE83" s="2"/>
-      <c r="BF83" s="2"/>
-      <c r="BG83" s="2"/>
-      <c r="BH83" s="2"/>
-      <c r="BI83" s="2"/>
-      <c r="BJ83" s="2"/>
-      <c r="BK83" s="2"/>
-      <c r="BL83" s="2"/>
-      <c r="BM83" s="2"/>
-      <c r="BN83" s="2"/>
-      <c r="BO83" s="2"/>
-      <c r="BP83" s="2"/>
-      <c r="BQ83" s="2"/>
-      <c r="BR83" s="2"/>
-      <c r="BS83" s="2"/>
-      <c r="BT83" s="2"/>
-      <c r="BU83" s="2"/>
-      <c r="BV83" s="2"/>
-      <c r="BW83" s="2"/>
-      <c r="BX83" s="5"/>
-      <c r="BY83" s="5"/>
-      <c r="BZ83" s="5"/>
-      <c r="CA83" s="5"/>
-      <c r="CB83" s="5"/>
-      <c r="CC83" s="5"/>
-      <c r="CD83" s="5"/>
-      <c r="CE83" s="5"/>
-      <c r="CF83" s="5"/>
-      <c r="CG83" s="5"/>
-      <c r="CH83" s="5"/>
-      <c r="CI83" s="5"/>
-      <c r="CJ83" s="5"/>
-      <c r="CK83" s="5"/>
-      <c r="CL83" s="5"/>
-      <c r="CM83" s="5"/>
-      <c r="CN83" s="5"/>
-      <c r="CO83" s="5"/>
-      <c r="CP83" s="5"/>
-      <c r="CQ83" s="5"/>
-      <c r="CR83" s="5"/>
-      <c r="CS83" s="5"/>
+        <v>183</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3"/>
+      <c r="AA83" s="3"/>
+      <c r="AB83" s="3"/>
+      <c r="AC83" s="3"/>
+      <c r="AD83" s="3"/>
+      <c r="AE83" s="3"/>
+      <c r="AF83" s="3"/>
+      <c r="AG83" s="3"/>
+      <c r="AH83" s="3"/>
+      <c r="AI83" s="3"/>
+      <c r="AJ83" s="3"/>
+      <c r="AK83" s="3"/>
+      <c r="AL83" s="3"/>
+      <c r="AM83" s="3"/>
+      <c r="AN83" s="3"/>
+      <c r="AO83" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AP83" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AQ83" s="3"/>
+      <c r="AR83" s="3"/>
+      <c r="AS83" s="3"/>
+      <c r="AT83" s="3"/>
+      <c r="AU83" s="3"/>
+      <c r="AV83" s="3"/>
+      <c r="AW83" s="3"/>
+      <c r="AX83" s="3"/>
+      <c r="AY83" s="3"/>
+      <c r="AZ83" s="3"/>
+      <c r="BA83" s="3"/>
+      <c r="BB83" s="3"/>
+      <c r="BC83" s="3"/>
+      <c r="BD83" s="3"/>
+      <c r="BE83" s="3"/>
+      <c r="BF83" s="3"/>
+      <c r="BG83" s="3"/>
+      <c r="BH83" s="3"/>
+      <c r="BI83" s="3"/>
+      <c r="BJ83" s="3"/>
+      <c r="BK83" s="3"/>
+      <c r="BL83" s="3"/>
+      <c r="BM83" s="3"/>
+      <c r="BN83" s="3"/>
+      <c r="BO83" s="3"/>
+      <c r="BP83" s="3"/>
+      <c r="BQ83" s="3"/>
+      <c r="BR83" s="3"/>
+      <c r="BS83" s="3"/>
+      <c r="BT83" s="3"/>
+      <c r="BU83" s="3"/>
+      <c r="BV83" s="3"/>
+      <c r="BW83" s="3"/>
+      <c r="BX83" s="3"/>
+      <c r="BY83" s="3"/>
+      <c r="BZ83" s="3"/>
+      <c r="CA83" s="3"/>
+      <c r="CB83" s="3"/>
+      <c r="CC83" s="3"/>
+      <c r="CD83" s="3"/>
+      <c r="CE83" s="3"/>
+      <c r="CF83" s="3"/>
+      <c r="CG83" s="3"/>
+      <c r="CH83" s="3"/>
+      <c r="CI83" s="3"/>
+      <c r="CJ83" s="3"/>
+      <c r="CK83" s="3"/>
+      <c r="CL83" s="3"/>
+      <c r="CM83" s="3"/>
+      <c r="CN83" s="3"/>
+      <c r="CO83" s="3"/>
+      <c r="CP83" s="3"/>
+      <c r="CQ83" s="3"/>
+      <c r="CR83" s="3"/>
+      <c r="CS83" s="3"/>
       <c r="CT83" s="8"/>
     </row>
     <row r="84" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
-      <c r="R84" s="2"/>
-      <c r="S84" s="2"/>
-      <c r="T84" s="2"/>
-      <c r="U84" s="2"/>
-      <c r="V84" s="2"/>
-      <c r="W84" s="2"/>
-      <c r="X84" s="2"/>
-      <c r="Y84" s="2"/>
-      <c r="Z84" s="2"/>
-      <c r="AA84" s="2"/>
-      <c r="AB84" s="2"/>
-      <c r="AC84" s="2"/>
-      <c r="AD84" s="2"/>
-      <c r="AE84" s="2"/>
-      <c r="AF84" s="2"/>
-      <c r="AG84" s="2"/>
-      <c r="AH84" s="2"/>
-      <c r="AI84" s="2"/>
-      <c r="AJ84" s="2"/>
-      <c r="AK84" s="2"/>
-      <c r="AL84" s="2"/>
-      <c r="AM84" s="2"/>
-      <c r="AN84" s="2"/>
-      <c r="AO84" s="2"/>
-      <c r="AP84" s="2"/>
-      <c r="AQ84" s="2"/>
-      <c r="AR84" s="2"/>
-      <c r="AS84" s="2"/>
-      <c r="AT84" s="2"/>
-      <c r="AU84" s="2"/>
-      <c r="AV84" s="2"/>
-      <c r="AW84" s="2"/>
-      <c r="AX84" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="AY84" s="2"/>
-      <c r="AZ84" s="2"/>
-      <c r="BA84" s="2"/>
-      <c r="BB84" s="2"/>
-      <c r="BC84" s="2"/>
-      <c r="BD84" s="2"/>
-      <c r="BE84" s="2"/>
-      <c r="BF84" s="2"/>
-      <c r="BG84" s="2"/>
-      <c r="BH84" s="2"/>
-      <c r="BI84" s="2"/>
-      <c r="BJ84" s="2"/>
-      <c r="BK84" s="2"/>
-      <c r="BL84" s="2"/>
-      <c r="BM84" s="2"/>
-      <c r="BN84" s="2"/>
-      <c r="BO84" s="2"/>
-      <c r="BP84" s="2"/>
-      <c r="BQ84" s="2"/>
-      <c r="BR84" s="2"/>
-      <c r="BS84" s="2"/>
-      <c r="BT84" s="2"/>
-      <c r="BU84" s="2"/>
-      <c r="BV84" s="2"/>
-      <c r="BW84" s="2"/>
-      <c r="BX84" s="5"/>
-      <c r="BY84" s="5"/>
-      <c r="BZ84" s="5"/>
-      <c r="CA84" s="5"/>
-      <c r="CB84" s="5"/>
-      <c r="CC84" s="5"/>
-      <c r="CD84" s="5"/>
-      <c r="CE84" s="5"/>
-      <c r="CF84" s="5"/>
-      <c r="CG84" s="5"/>
-      <c r="CH84" s="5"/>
-      <c r="CI84" s="5"/>
-      <c r="CJ84" s="5"/>
-      <c r="CK84" s="5"/>
-      <c r="CL84" s="5"/>
-      <c r="CM84" s="5"/>
-      <c r="CN84" s="5"/>
-      <c r="CO84" s="5"/>
-      <c r="CP84" s="5"/>
-      <c r="CQ84" s="5"/>
-      <c r="CR84" s="5"/>
-      <c r="CS84" s="5"/>
+        <v>184</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="3"/>
+      <c r="AA84" s="3"/>
+      <c r="AB84" s="3"/>
+      <c r="AC84" s="3"/>
+      <c r="AD84" s="3"/>
+      <c r="AE84" s="3"/>
+      <c r="AF84" s="3"/>
+      <c r="AG84" s="3"/>
+      <c r="AH84" s="3"/>
+      <c r="AI84" s="3"/>
+      <c r="AJ84" s="3"/>
+      <c r="AK84" s="3"/>
+      <c r="AL84" s="3"/>
+      <c r="AM84" s="3"/>
+      <c r="AN84" s="3"/>
+      <c r="AO84" s="3"/>
+      <c r="AP84" s="3"/>
+      <c r="AQ84" s="3"/>
+      <c r="AR84" s="3"/>
+      <c r="AS84" s="3"/>
+      <c r="AT84" s="3"/>
+      <c r="AU84" s="3"/>
+      <c r="AV84" s="3"/>
+      <c r="AW84" s="3"/>
+      <c r="AX84" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="AY84" s="3"/>
+      <c r="AZ84" s="3"/>
+      <c r="BA84" s="3"/>
+      <c r="BB84" s="3"/>
+      <c r="BC84" s="3"/>
+      <c r="BD84" s="3"/>
+      <c r="BE84" s="3"/>
+      <c r="BF84" s="3"/>
+      <c r="BG84" s="3"/>
+      <c r="BH84" s="3"/>
+      <c r="BI84" s="3"/>
+      <c r="BJ84" s="3"/>
+      <c r="BK84" s="3"/>
+      <c r="BL84" s="3"/>
+      <c r="BM84" s="3"/>
+      <c r="BN84" s="3"/>
+      <c r="BO84" s="3"/>
+      <c r="BP84" s="3"/>
+      <c r="BQ84" s="3"/>
+      <c r="BR84" s="3"/>
+      <c r="BS84" s="3"/>
+      <c r="BT84" s="3"/>
+      <c r="BU84" s="3"/>
+      <c r="BV84" s="3"/>
+      <c r="BW84" s="3"/>
+      <c r="BX84" s="3"/>
+      <c r="BY84" s="3"/>
+      <c r="BZ84" s="3"/>
+      <c r="CA84" s="3"/>
+      <c r="CB84" s="3"/>
+      <c r="CC84" s="3"/>
+      <c r="CD84" s="3"/>
+      <c r="CE84" s="3"/>
+      <c r="CF84" s="3"/>
+      <c r="CG84" s="3"/>
+      <c r="CH84" s="3"/>
+      <c r="CI84" s="3"/>
+      <c r="CJ84" s="3"/>
+      <c r="CK84" s="3"/>
+      <c r="CL84" s="3"/>
+      <c r="CM84" s="3"/>
+      <c r="CN84" s="3"/>
+      <c r="CO84" s="3"/>
+      <c r="CP84" s="3"/>
+      <c r="CQ84" s="3"/>
+      <c r="CR84" s="3"/>
+      <c r="CS84" s="3"/>
       <c r="CT84" s="8"/>
     </row>
     <row r="85" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="M85" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" s="2"/>
-      <c r="Q85" s="2"/>
-      <c r="R85" s="2"/>
-      <c r="S85" s="2"/>
-      <c r="T85" s="2"/>
-      <c r="U85" s="2"/>
-      <c r="V85" s="2"/>
-      <c r="W85" s="2"/>
-      <c r="X85" s="2"/>
-      <c r="Y85" s="2"/>
-      <c r="Z85" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="AA85" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="AB85" s="2"/>
-      <c r="AC85" s="2"/>
-      <c r="AD85" s="2"/>
-      <c r="AE85" s="2"/>
-      <c r="AF85" s="2"/>
-      <c r="AG85" s="2"/>
-      <c r="AH85" s="2"/>
-      <c r="AI85" s="2"/>
-      <c r="AJ85" s="2"/>
-      <c r="AK85" s="2"/>
-      <c r="AL85" s="2"/>
-      <c r="AM85" s="2"/>
-      <c r="AN85" s="2"/>
-      <c r="AO85" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="AP85" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="AQ85" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="AR85" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="AS85" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
+      <c r="X85" s="3"/>
+      <c r="Y85" s="3"/>
+      <c r="Z85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB85" s="3"/>
+      <c r="AC85" s="3"/>
+      <c r="AD85" s="3"/>
+      <c r="AE85" s="3"/>
+      <c r="AF85" s="3"/>
+      <c r="AG85" s="3"/>
+      <c r="AH85" s="3"/>
+      <c r="AI85" s="3"/>
+      <c r="AJ85" s="3"/>
+      <c r="AK85" s="3"/>
+      <c r="AL85" s="3"/>
+      <c r="AM85" s="3"/>
+      <c r="AN85" s="3"/>
+      <c r="AO85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AP85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AQ85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AR85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AS85" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="AT85" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AU85" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="AT85" s="2" t="s">
+      <c r="AV85" s="3"/>
+      <c r="AW85" s="3"/>
+      <c r="AX85" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="AU85" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AV85" s="2"/>
-      <c r="AW85" s="2"/>
-      <c r="AX85" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="AY85" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="AZ85" s="2"/>
-      <c r="BA85" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BB85" s="2"/>
-      <c r="BC85" s="2"/>
-      <c r="BD85" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BE85" s="2"/>
-      <c r="BF85" s="2"/>
-      <c r="BG85" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BH85" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BI85" s="2"/>
-      <c r="BJ85" s="2"/>
-      <c r="BK85" s="2"/>
-      <c r="BL85" s="2"/>
-      <c r="BM85" s="2"/>
-      <c r="BN85" s="2"/>
-      <c r="BO85" s="2"/>
-      <c r="BP85" s="2"/>
-      <c r="BQ85" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BR85" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BS85" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BT85" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BU85" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BV85" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BW85" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BX85" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="BY85" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="BZ85" s="5"/>
-      <c r="CA85" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="CB85" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="CC85" s="5"/>
-      <c r="CD85" s="5"/>
-      <c r="CE85" s="5"/>
-      <c r="CF85" s="5"/>
-      <c r="CG85" s="5"/>
-      <c r="CH85" s="5"/>
-      <c r="CI85" s="5"/>
-      <c r="CJ85" s="5"/>
-      <c r="CK85" s="5"/>
-      <c r="CL85" s="5"/>
-      <c r="CM85" s="5"/>
-      <c r="CN85" s="5"/>
-      <c r="CO85" s="5"/>
-      <c r="CP85" s="5"/>
-      <c r="CQ85" s="5"/>
-      <c r="CR85" s="5"/>
-      <c r="CS85" s="5" t="s">
-        <v>263</v>
+      <c r="AY85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AZ85" s="3"/>
+      <c r="BA85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="BB85" s="3"/>
+      <c r="BC85" s="3"/>
+      <c r="BD85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="BE85" s="3"/>
+      <c r="BF85" s="3"/>
+      <c r="BG85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="BH85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="BI85" s="3"/>
+      <c r="BJ85" s="3"/>
+      <c r="BK85" s="3"/>
+      <c r="BL85" s="3"/>
+      <c r="BM85" s="3"/>
+      <c r="BN85" s="3"/>
+      <c r="BO85" s="3"/>
+      <c r="BP85" s="3"/>
+      <c r="BQ85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="BR85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="BS85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="BT85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="BU85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="BV85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="BW85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="BX85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="BY85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="BZ85" s="3"/>
+      <c r="CA85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="CB85" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="CC85" s="3"/>
+      <c r="CD85" s="3"/>
+      <c r="CE85" s="3"/>
+      <c r="CF85" s="3"/>
+      <c r="CG85" s="3"/>
+      <c r="CH85" s="3"/>
+      <c r="CI85" s="3"/>
+      <c r="CJ85" s="3"/>
+      <c r="CK85" s="3"/>
+      <c r="CL85" s="3"/>
+      <c r="CM85" s="3"/>
+      <c r="CN85" s="3"/>
+      <c r="CO85" s="3"/>
+      <c r="CP85" s="3"/>
+      <c r="CQ85" s="3"/>
+      <c r="CR85" s="3"/>
+      <c r="CS85" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="CT85" s="8"/>
     </row>
     <row r="86" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="M86" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
-      <c r="Q86" s="2"/>
-      <c r="R86" s="2"/>
-      <c r="S86" s="2"/>
-      <c r="T86" s="2"/>
-      <c r="U86" s="2"/>
-      <c r="V86" s="2"/>
-      <c r="W86" s="2"/>
-      <c r="X86" s="2"/>
-      <c r="Y86" s="2"/>
-      <c r="Z86" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA86" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB86" s="2"/>
-      <c r="AC86" s="2"/>
-      <c r="AD86" s="2"/>
-      <c r="AE86" s="2"/>
-      <c r="AF86" s="2"/>
-      <c r="AG86" s="2"/>
-      <c r="AH86" s="2"/>
-      <c r="AI86" s="2"/>
-      <c r="AJ86" s="2"/>
-      <c r="AK86" s="2"/>
-      <c r="AL86" s="2"/>
-      <c r="AM86" s="2"/>
-      <c r="AN86" s="2"/>
-      <c r="AO86" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="AP86" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="AQ86" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="AR86" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="AS86" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="AT86" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="AU86" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="AV86" s="2"/>
-      <c r="AW86" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="AX86" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="AY86" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="AZ86" s="2"/>
-      <c r="BA86" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="BB86" s="2"/>
-      <c r="BC86" s="2"/>
-      <c r="BD86" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="BE86" s="2"/>
-      <c r="BF86" s="2"/>
-      <c r="BG86" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="BH86" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="BI86" s="2"/>
-      <c r="BJ86" s="2"/>
-      <c r="BK86" s="2"/>
-      <c r="BL86" s="2"/>
-      <c r="BM86" s="2"/>
-      <c r="BN86" s="2"/>
-      <c r="BO86" s="2"/>
-      <c r="BP86" s="2"/>
-      <c r="BQ86" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="BR86" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="BS86" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="BT86" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="BU86" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="BV86" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="BW86" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="BX86" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="BY86" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="BZ86" s="5"/>
-      <c r="CA86" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="CB86" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="CC86" s="5"/>
-      <c r="CD86" s="5"/>
-      <c r="CE86" s="5"/>
-      <c r="CF86" s="5"/>
-      <c r="CG86" s="5"/>
-      <c r="CH86" s="5"/>
-      <c r="CI86" s="5"/>
-      <c r="CJ86" s="5"/>
-      <c r="CK86" s="5"/>
-      <c r="CL86" s="5"/>
-      <c r="CM86" s="5"/>
-      <c r="CN86" s="5"/>
-      <c r="CO86" s="5"/>
-      <c r="CP86" s="5"/>
-      <c r="CQ86" s="5"/>
-      <c r="CR86" s="5"/>
-      <c r="CS86" s="5" t="s">
-        <v>268</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="3"/>
+      <c r="AA86" s="3"/>
+      <c r="AB86" s="3"/>
+      <c r="AC86" s="3"/>
+      <c r="AD86" s="3"/>
+      <c r="AE86" s="3"/>
+      <c r="AF86" s="3"/>
+      <c r="AG86" s="3"/>
+      <c r="AH86" s="3"/>
+      <c r="AI86" s="3"/>
+      <c r="AJ86" s="3"/>
+      <c r="AK86" s="3"/>
+      <c r="AL86" s="3"/>
+      <c r="AM86" s="3"/>
+      <c r="AN86" s="3"/>
+      <c r="AO86" s="3"/>
+      <c r="AP86" s="3"/>
+      <c r="AQ86" s="3"/>
+      <c r="AR86" s="3"/>
+      <c r="AS86" s="3"/>
+      <c r="AT86" s="3"/>
+      <c r="AU86" s="3"/>
+      <c r="AV86" s="3"/>
+      <c r="AW86" s="3"/>
+      <c r="AX86" s="3"/>
+      <c r="AY86" s="3"/>
+      <c r="AZ86" s="3"/>
+      <c r="BA86" s="3"/>
+      <c r="BB86" s="3"/>
+      <c r="BC86" s="3"/>
+      <c r="BD86" s="3"/>
+      <c r="BE86" s="3"/>
+      <c r="BF86" s="3"/>
+      <c r="BG86" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="BH86" s="3"/>
+      <c r="BI86" s="3"/>
+      <c r="BJ86" s="3"/>
+      <c r="BK86" s="3"/>
+      <c r="BL86" s="3"/>
+      <c r="BM86" s="3"/>
+      <c r="BN86" s="3"/>
+      <c r="BO86" s="3"/>
+      <c r="BP86" s="3"/>
+      <c r="BQ86" s="3"/>
+      <c r="BR86" s="3"/>
+      <c r="BS86" s="3"/>
+      <c r="BT86" s="3"/>
+      <c r="BU86" s="3"/>
+      <c r="BV86" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="BW86" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="BX86" s="3"/>
+      <c r="BY86" s="3"/>
+      <c r="BZ86" s="3"/>
+      <c r="CA86" s="3"/>
+      <c r="CB86" s="3"/>
+      <c r="CC86" s="3"/>
+      <c r="CD86" s="3"/>
+      <c r="CE86" s="3"/>
+      <c r="CF86" s="3"/>
+      <c r="CG86" s="3"/>
+      <c r="CH86" s="3"/>
+      <c r="CI86" s="3"/>
+      <c r="CJ86" s="3"/>
+      <c r="CK86" s="3"/>
+      <c r="CL86" s="3"/>
+      <c r="CM86" s="3"/>
+      <c r="CN86" s="3"/>
+      <c r="CO86" s="3"/>
+      <c r="CP86" s="3"/>
+      <c r="CQ86" s="3"/>
+      <c r="CR86" s="3"/>
+      <c r="CS86" s="3"/>
       <c r="CT86" s="8"/>
     </row>
     <row r="87" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="M87" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="2"/>
-      <c r="R87" s="2"/>
-      <c r="S87" s="2"/>
-      <c r="T87" s="2"/>
-      <c r="U87" s="2"/>
-      <c r="V87" s="2"/>
-      <c r="W87" s="2"/>
-      <c r="X87" s="2"/>
-      <c r="Y87" s="2"/>
-      <c r="Z87" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="AA87" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB87" s="2"/>
-      <c r="AC87" s="2"/>
-      <c r="AD87" s="2"/>
-      <c r="AE87" s="2"/>
-      <c r="AF87" s="2"/>
-      <c r="AG87" s="2"/>
-      <c r="AH87" s="2"/>
-      <c r="AI87" s="2"/>
-      <c r="AJ87" s="2"/>
-      <c r="AK87" s="2"/>
-      <c r="AL87" s="2"/>
-      <c r="AM87" s="2"/>
-      <c r="AN87" s="2"/>
-      <c r="AO87" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="AP87" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="AQ87" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="AR87" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="AS87" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="AT87" s="2"/>
-      <c r="AU87" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="AV87" s="2"/>
-      <c r="AW87" s="2"/>
-      <c r="AX87" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="AY87" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="AZ87" s="2"/>
-      <c r="BA87" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="BB87" s="2"/>
-      <c r="BC87" s="2"/>
-      <c r="BD87" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="BE87" s="2"/>
-      <c r="BF87" s="2"/>
-      <c r="BG87" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="BH87" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="BI87" s="2"/>
-      <c r="BJ87" s="2"/>
-      <c r="BK87" s="2"/>
-      <c r="BL87" s="2"/>
-      <c r="BM87" s="2"/>
-      <c r="BN87" s="2"/>
-      <c r="BO87" s="2"/>
-      <c r="BP87" s="2"/>
-      <c r="BQ87" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="BR87" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="BS87" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="BT87" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="BU87" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="BV87" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="BW87" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="BX87" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="BY87" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="BZ87" s="5"/>
-      <c r="CA87" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="CB87" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="CC87" s="5"/>
-      <c r="CD87" s="5"/>
-      <c r="CE87" s="5"/>
-      <c r="CF87" s="5"/>
-      <c r="CG87" s="5"/>
-      <c r="CH87" s="5"/>
-      <c r="CI87" s="5"/>
-      <c r="CJ87" s="5"/>
-      <c r="CK87" s="5"/>
-      <c r="CL87" s="5"/>
-      <c r="CM87" s="5"/>
-      <c r="CN87" s="5"/>
-      <c r="CO87" s="5"/>
-      <c r="CP87" s="5"/>
-      <c r="CQ87" s="5"/>
-      <c r="CR87" s="5"/>
-      <c r="CS87" s="5" t="s">
-        <v>271</v>
+        <v>186</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3"/>
+      <c r="X87" s="3"/>
+      <c r="Y87" s="3"/>
+      <c r="Z87" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA87" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB87" s="3"/>
+      <c r="AC87" s="3"/>
+      <c r="AD87" s="3"/>
+      <c r="AE87" s="3"/>
+      <c r="AF87" s="3"/>
+      <c r="AG87" s="3"/>
+      <c r="AH87" s="3"/>
+      <c r="AI87" s="3"/>
+      <c r="AJ87" s="3"/>
+      <c r="AK87" s="3"/>
+      <c r="AL87" s="3"/>
+      <c r="AM87" s="3"/>
+      <c r="AN87" s="3"/>
+      <c r="AO87" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AP87" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AQ87" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AR87" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AS87" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AT87" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AU87" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AV87" s="3"/>
+      <c r="AW87" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX87" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AY87" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AZ87" s="3"/>
+      <c r="BA87" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="BB87" s="3"/>
+      <c r="BC87" s="3"/>
+      <c r="BD87" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="BE87" s="3"/>
+      <c r="BF87" s="3"/>
+      <c r="BG87" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="BH87" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="BI87" s="3"/>
+      <c r="BJ87" s="3"/>
+      <c r="BK87" s="3"/>
+      <c r="BL87" s="3"/>
+      <c r="BM87" s="3"/>
+      <c r="BN87" s="3"/>
+      <c r="BO87" s="3"/>
+      <c r="BP87" s="3"/>
+      <c r="BQ87" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="BR87" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="BS87" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="BT87" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="BU87" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="BV87" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="BW87" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="BX87" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="BY87" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="BZ87" s="3"/>
+      <c r="CA87" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="CB87" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="CC87" s="3"/>
+      <c r="CD87" s="3"/>
+      <c r="CE87" s="3"/>
+      <c r="CF87" s="3"/>
+      <c r="CG87" s="3"/>
+      <c r="CH87" s="3"/>
+      <c r="CI87" s="3"/>
+      <c r="CJ87" s="3"/>
+      <c r="CK87" s="3"/>
+      <c r="CL87" s="3"/>
+      <c r="CM87" s="3"/>
+      <c r="CN87" s="3"/>
+      <c r="CO87" s="3"/>
+      <c r="CP87" s="3"/>
+      <c r="CQ87" s="3"/>
+      <c r="CR87" s="3"/>
+      <c r="CS87" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="CT87" s="8"/>
     </row>
     <row r="88" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="M88" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="N88" s="5"/>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
-      <c r="U88" s="5"/>
-      <c r="V88" s="5"/>
-      <c r="W88" s="5"/>
-      <c r="X88" s="5"/>
-      <c r="Y88" s="5"/>
-      <c r="Z88" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA88" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB88" s="5"/>
-      <c r="AC88" s="5"/>
-      <c r="AD88" s="5"/>
-      <c r="AE88" s="5"/>
-      <c r="AF88" s="5"/>
-      <c r="AG88" s="5"/>
-      <c r="AH88" s="5"/>
-      <c r="AI88" s="5"/>
-      <c r="AJ88" s="5"/>
-      <c r="AK88" s="5"/>
-      <c r="AL88" s="5"/>
-      <c r="AM88" s="5"/>
-      <c r="AN88" s="5"/>
-      <c r="AO88" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="AP88" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="AQ88" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="AR88" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="AS88" s="5"/>
-      <c r="AT88" s="2"/>
-      <c r="AU88" s="5"/>
-      <c r="AV88" s="5"/>
-      <c r="AW88" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AX88" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="AY88" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="AZ88" s="5"/>
-      <c r="BA88" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="BB88" s="5"/>
-      <c r="BC88" s="5"/>
-      <c r="BD88" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="BE88" s="5"/>
-      <c r="BF88" s="5"/>
-      <c r="BG88" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="BH88" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="BI88" s="5"/>
-      <c r="BJ88" s="5"/>
-      <c r="BK88" s="5"/>
-      <c r="BL88" s="5"/>
-      <c r="BM88" s="5"/>
-      <c r="BN88" s="5"/>
-      <c r="BO88" s="5"/>
-      <c r="BP88" s="5"/>
-      <c r="BQ88" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="BR88" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="BS88" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="BT88" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="BU88" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="BV88" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="BW88" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="BX88" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="BY88" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="BZ88" s="5"/>
-      <c r="CA88" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="CB88" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="CC88" s="5"/>
-      <c r="CD88" s="5"/>
-      <c r="CE88" s="5"/>
-      <c r="CF88" s="5"/>
-      <c r="CG88" s="5"/>
-      <c r="CH88" s="5"/>
-      <c r="CI88" s="5"/>
-      <c r="CJ88" s="5"/>
-      <c r="CK88" s="5"/>
-      <c r="CL88" s="5"/>
-      <c r="CM88" s="5"/>
-      <c r="CN88" s="5"/>
-      <c r="CO88" s="5"/>
-      <c r="CP88" s="5"/>
-      <c r="CQ88" s="5"/>
-      <c r="CR88" s="5"/>
-      <c r="CS88" s="5" t="s">
-        <v>273</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="3"/>
+      <c r="AA88" s="3"/>
+      <c r="AB88" s="3"/>
+      <c r="AC88" s="3"/>
+      <c r="AD88" s="3"/>
+      <c r="AE88" s="3"/>
+      <c r="AF88" s="3"/>
+      <c r="AG88" s="3"/>
+      <c r="AH88" s="3"/>
+      <c r="AI88" s="3"/>
+      <c r="AJ88" s="3"/>
+      <c r="AK88" s="3"/>
+      <c r="AL88" s="3"/>
+      <c r="AM88" s="3"/>
+      <c r="AN88" s="3"/>
+      <c r="AO88" s="3"/>
+      <c r="AP88" s="3"/>
+      <c r="AQ88" s="3"/>
+      <c r="AR88" s="3"/>
+      <c r="AS88" s="3"/>
+      <c r="AT88" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="AU88" s="3"/>
+      <c r="AV88" s="3"/>
+      <c r="AW88" s="3"/>
+      <c r="AX88" s="3"/>
+      <c r="AY88" s="3"/>
+      <c r="AZ88" s="3"/>
+      <c r="BA88" s="3"/>
+      <c r="BB88" s="3"/>
+      <c r="BC88" s="3"/>
+      <c r="BD88" s="3"/>
+      <c r="BE88" s="3"/>
+      <c r="BF88" s="3"/>
+      <c r="BG88" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="BH88" s="3"/>
+      <c r="BI88" s="3"/>
+      <c r="BJ88" s="3"/>
+      <c r="BK88" s="3"/>
+      <c r="BL88" s="3"/>
+      <c r="BM88" s="3"/>
+      <c r="BN88" s="3"/>
+      <c r="BO88" s="3"/>
+      <c r="BP88" s="3"/>
+      <c r="BQ88" s="3"/>
+      <c r="BR88" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="BS88" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="BT88" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="BU88" s="3"/>
+      <c r="BV88" s="3"/>
+      <c r="BW88" s="3"/>
+      <c r="BX88" s="3"/>
+      <c r="BY88" s="3"/>
+      <c r="BZ88" s="3"/>
+      <c r="CA88" s="3"/>
+      <c r="CB88" s="3"/>
+      <c r="CC88" s="3"/>
+      <c r="CD88" s="3"/>
+      <c r="CE88" s="3"/>
+      <c r="CF88" s="3"/>
+      <c r="CG88" s="3"/>
+      <c r="CH88" s="3"/>
+      <c r="CI88" s="3"/>
+      <c r="CJ88" s="3"/>
+      <c r="CK88" s="3"/>
+      <c r="CL88" s="3"/>
+      <c r="CM88" s="3"/>
+      <c r="CN88" s="3"/>
+      <c r="CO88" s="3"/>
+      <c r="CP88" s="3"/>
+      <c r="CQ88" s="3"/>
+      <c r="CR88" s="3"/>
+      <c r="CS88" s="3"/>
       <c r="CT88" s="8"/>
     </row>
     <row r="89" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="5"/>
-      <c r="S89" s="5"/>
-      <c r="T89" s="5"/>
-      <c r="U89" s="5"/>
-      <c r="V89" s="5"/>
-      <c r="W89" s="5"/>
-      <c r="X89" s="5"/>
-      <c r="Y89" s="5"/>
-      <c r="Z89" s="5"/>
-      <c r="AA89" s="5"/>
-      <c r="AB89" s="5"/>
-      <c r="AC89" s="5"/>
-      <c r="AD89" s="5"/>
-      <c r="AE89" s="5"/>
-      <c r="AF89" s="5"/>
-      <c r="AG89" s="5"/>
-      <c r="AH89" s="5"/>
-      <c r="AI89" s="5"/>
-      <c r="AJ89" s="5"/>
-      <c r="AK89" s="5"/>
-      <c r="AL89" s="5"/>
-      <c r="AM89" s="5"/>
-      <c r="AN89" s="5"/>
-      <c r="AO89" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="AP89" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="AQ89" s="5"/>
-      <c r="AR89" s="5"/>
-      <c r="AS89" s="5"/>
-      <c r="AT89" s="5"/>
-      <c r="AU89" s="5"/>
-      <c r="AV89" s="5"/>
-      <c r="AW89" s="5"/>
-      <c r="AX89" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AY89" s="5"/>
-      <c r="AZ89" s="5"/>
-      <c r="BA89" s="5"/>
-      <c r="BB89" s="5"/>
-      <c r="BC89" s="5"/>
-      <c r="BD89" s="5"/>
-      <c r="BE89" s="5"/>
-      <c r="BF89" s="5"/>
-      <c r="BG89" s="5"/>
-      <c r="BH89" s="5"/>
-      <c r="BI89" s="5"/>
-      <c r="BJ89" s="5"/>
-      <c r="BK89" s="5"/>
-      <c r="BL89" s="5"/>
-      <c r="BM89" s="5"/>
-      <c r="BN89" s="5"/>
-      <c r="BO89" s="5"/>
-      <c r="BP89" s="5"/>
-      <c r="BQ89" s="5"/>
-      <c r="BR89" s="5"/>
-      <c r="BS89" s="5"/>
-      <c r="BT89" s="5"/>
-      <c r="BU89" s="5"/>
-      <c r="BV89" s="5"/>
-      <c r="BW89" s="5"/>
-      <c r="BX89" s="5"/>
-      <c r="BY89" s="5"/>
-      <c r="BZ89" s="5"/>
-      <c r="CA89" s="5"/>
-      <c r="CB89" s="5"/>
-      <c r="CC89" s="5"/>
-      <c r="CD89" s="5"/>
-      <c r="CE89" s="5"/>
-      <c r="CF89" s="5"/>
-      <c r="CG89" s="5"/>
-      <c r="CH89" s="5"/>
-      <c r="CI89" s="5"/>
-      <c r="CJ89" s="5"/>
-      <c r="CK89" s="5"/>
-      <c r="CL89" s="5"/>
-      <c r="CM89" s="5"/>
-      <c r="CN89" s="5"/>
-      <c r="CO89" s="5"/>
-      <c r="CP89" s="5"/>
-      <c r="CQ89" s="5"/>
-      <c r="CR89" s="5"/>
-      <c r="CS89" s="5"/>
+        <v>187</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="W89" s="3"/>
+      <c r="X89" s="3"/>
+      <c r="Y89" s="3"/>
+      <c r="Z89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB89" s="3"/>
+      <c r="AC89" s="3"/>
+      <c r="AD89" s="3"/>
+      <c r="AE89" s="3"/>
+      <c r="AF89" s="3"/>
+      <c r="AG89" s="3"/>
+      <c r="AH89" s="3"/>
+      <c r="AI89" s="3"/>
+      <c r="AJ89" s="3"/>
+      <c r="AK89" s="3"/>
+      <c r="AL89" s="3"/>
+      <c r="AM89" s="3"/>
+      <c r="AN89" s="3"/>
+      <c r="AO89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="AP89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="AQ89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="AR89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="AS89" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AT89" s="3"/>
+      <c r="AU89" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="AV89" s="3"/>
+      <c r="AW89" s="3"/>
+      <c r="AX89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="AY89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="AZ89" s="3"/>
+      <c r="BA89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="BB89" s="3"/>
+      <c r="BC89" s="3"/>
+      <c r="BD89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="BE89" s="3"/>
+      <c r="BF89" s="3"/>
+      <c r="BG89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="BH89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="BI89" s="3"/>
+      <c r="BJ89" s="3"/>
+      <c r="BK89" s="3"/>
+      <c r="BL89" s="3"/>
+      <c r="BM89" s="3"/>
+      <c r="BN89" s="3"/>
+      <c r="BO89" s="3"/>
+      <c r="BP89" s="3"/>
+      <c r="BQ89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="BR89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="BS89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="BT89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="BU89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="BV89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="BW89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="BX89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="BY89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="BZ89" s="3"/>
+      <c r="CA89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="CB89" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="CC89" s="3"/>
+      <c r="CD89" s="3"/>
+      <c r="CE89" s="3"/>
+      <c r="CF89" s="3"/>
+      <c r="CG89" s="3"/>
+      <c r="CH89" s="3"/>
+      <c r="CI89" s="3"/>
+      <c r="CJ89" s="3"/>
+      <c r="CK89" s="3"/>
+      <c r="CL89" s="3"/>
+      <c r="CM89" s="3"/>
+      <c r="CN89" s="3"/>
+      <c r="CO89" s="3"/>
+      <c r="CP89" s="3"/>
+      <c r="CQ89" s="3"/>
+      <c r="CR89" s="3"/>
+      <c r="CS89" s="3" t="s">
+        <v>273</v>
+      </c>
       <c r="CT89" s="8"/>
     </row>
     <row r="90" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="5"/>
-      <c r="P90" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
-      <c r="T90" s="5"/>
-      <c r="U90" s="5"/>
-      <c r="V90" s="5"/>
-      <c r="W90" s="5"/>
-      <c r="X90" s="5"/>
-      <c r="Y90" s="5"/>
-      <c r="Z90" s="5"/>
-      <c r="AA90" s="5"/>
-      <c r="AB90" s="5"/>
-      <c r="AC90" s="5"/>
-      <c r="AD90" s="5"/>
-      <c r="AE90" s="5"/>
-      <c r="AF90" s="5"/>
-      <c r="AG90" s="5"/>
-      <c r="AH90" s="5"/>
-      <c r="AI90" s="5"/>
-      <c r="AJ90" s="5"/>
-      <c r="AK90" s="5"/>
-      <c r="AL90" s="5"/>
-      <c r="AM90" s="5"/>
-      <c r="AN90" s="5"/>
-      <c r="AO90" s="5"/>
-      <c r="AP90" s="5"/>
-      <c r="AQ90" s="5"/>
-      <c r="AR90" s="5"/>
-      <c r="AS90" s="5"/>
-      <c r="AT90" s="5"/>
-      <c r="AU90" s="5"/>
-      <c r="AV90" s="5"/>
-      <c r="AW90" s="5"/>
-      <c r="AX90" s="5"/>
-      <c r="AY90" s="5"/>
-      <c r="AZ90" s="5"/>
-      <c r="BA90" s="5"/>
-      <c r="BB90" s="5"/>
-      <c r="BC90" s="5"/>
-      <c r="BD90" s="5"/>
-      <c r="BE90" s="5"/>
-      <c r="BF90" s="5"/>
-      <c r="BG90" s="5"/>
-      <c r="BH90" s="5"/>
-      <c r="BI90" s="5"/>
-      <c r="BJ90" s="5"/>
-      <c r="BK90" s="5"/>
-      <c r="BL90" s="5"/>
-      <c r="BM90" s="5"/>
-      <c r="BN90" s="5"/>
-      <c r="BO90" s="5"/>
-      <c r="BP90" s="5"/>
-      <c r="BQ90" s="5"/>
-      <c r="BR90" s="5"/>
-      <c r="BS90" s="5"/>
-      <c r="BT90" s="5"/>
-      <c r="BU90" s="5"/>
-      <c r="BV90" s="5"/>
-      <c r="BW90" s="5"/>
-      <c r="BX90" s="5"/>
-      <c r="BY90" s="5"/>
-      <c r="BZ90" s="5"/>
-      <c r="CA90" s="5"/>
-      <c r="CB90" s="5"/>
-      <c r="CC90" s="5"/>
-      <c r="CD90" s="5"/>
-      <c r="CE90" s="5"/>
-      <c r="CF90" s="5"/>
-      <c r="CG90" s="5"/>
-      <c r="CH90" s="5"/>
-      <c r="CI90" s="5"/>
-      <c r="CJ90" s="5"/>
-      <c r="CK90" s="5"/>
-      <c r="CL90" s="5"/>
-      <c r="CM90" s="5"/>
-      <c r="CN90" s="5"/>
-      <c r="CO90" s="5"/>
-      <c r="CP90" s="5"/>
-      <c r="CQ90" s="5"/>
-      <c r="CR90" s="5"/>
-      <c r="CS90" s="5"/>
+        <v>293</v>
+      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA90" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+      <c r="AF90" s="3"/>
+      <c r="AG90" s="3"/>
+      <c r="AH90" s="3"/>
+      <c r="AI90" s="3"/>
+      <c r="AJ90" s="3"/>
+      <c r="AK90" s="3"/>
+      <c r="AL90" s="3"/>
+      <c r="AM90" s="3"/>
+      <c r="AN90" s="3"/>
+      <c r="AO90" s="3"/>
+      <c r="AP90" s="3"/>
+      <c r="AQ90" s="3"/>
+      <c r="AR90" s="3"/>
+      <c r="AS90" s="3"/>
+      <c r="AT90" s="3"/>
+      <c r="AU90" s="3"/>
+      <c r="AV90" s="3"/>
+      <c r="AW90" s="3"/>
+      <c r="AX90" s="3"/>
+      <c r="AY90" s="3"/>
+      <c r="AZ90" s="3"/>
+      <c r="BA90" s="3"/>
+      <c r="BB90" s="3"/>
+      <c r="BC90" s="3"/>
+      <c r="BD90" s="3"/>
+      <c r="BE90" s="3"/>
+      <c r="BF90" s="3"/>
+      <c r="BG90" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="BH90" s="3"/>
+      <c r="BI90" s="3"/>
+      <c r="BJ90" s="3"/>
+      <c r="BK90" s="3"/>
+      <c r="BL90" s="3"/>
+      <c r="BM90" s="3"/>
+      <c r="BN90" s="3"/>
+      <c r="BO90" s="3"/>
+      <c r="BP90" s="3"/>
+      <c r="BQ90" s="3"/>
+      <c r="BR90" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="BS90" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="BT90" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="BU90" s="3"/>
+      <c r="BV90" s="3"/>
+      <c r="BW90" s="3"/>
+      <c r="BX90" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="BY90" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="BZ90" s="3"/>
+      <c r="CA90" s="3"/>
+      <c r="CB90" s="3"/>
+      <c r="CC90" s="3"/>
+      <c r="CD90" s="3"/>
+      <c r="CE90" s="3"/>
+      <c r="CF90" s="3"/>
+      <c r="CG90" s="3"/>
+      <c r="CH90" s="3"/>
+      <c r="CI90" s="3"/>
+      <c r="CJ90" s="3"/>
+      <c r="CK90" s="3"/>
+      <c r="CL90" s="3"/>
+      <c r="CM90" s="3"/>
+      <c r="CN90" s="3"/>
+      <c r="CO90" s="3"/>
+      <c r="CP90" s="3"/>
+      <c r="CQ90" s="3"/>
+      <c r="CR90" s="3"/>
+      <c r="CS90" s="3"/>
       <c r="CT90" s="8"/>
     </row>
     <row r="91" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
-      <c r="M91" s="5"/>
-      <c r="N91" s="5"/>
-      <c r="O91" s="5"/>
-      <c r="P91" s="5"/>
-      <c r="Q91" s="5"/>
-      <c r="R91" s="5"/>
-      <c r="S91" s="5"/>
-      <c r="T91" s="5"/>
-      <c r="U91" s="5"/>
-      <c r="V91" s="5"/>
-      <c r="W91" s="5"/>
-      <c r="X91" s="5"/>
-      <c r="Y91" s="5"/>
-      <c r="Z91" s="5"/>
-      <c r="AA91" s="5"/>
-      <c r="AB91" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="AC91" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="AD91" s="5"/>
-      <c r="AE91" s="5"/>
-      <c r="AF91" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="AG91" s="5"/>
-      <c r="AH91" s="5"/>
-      <c r="AI91" s="5"/>
-      <c r="AJ91" s="5"/>
-      <c r="AK91" s="5"/>
-      <c r="AL91" s="5"/>
-      <c r="AM91" s="5"/>
-      <c r="AN91" s="5"/>
-      <c r="AO91" s="5"/>
-      <c r="AP91" s="5"/>
-      <c r="AQ91" s="5"/>
-      <c r="AR91" s="5"/>
-      <c r="AS91" s="5"/>
-      <c r="AT91" s="5"/>
-      <c r="AU91" s="5"/>
-      <c r="AV91" s="5"/>
-      <c r="AW91" s="5"/>
-      <c r="AX91" s="5"/>
-      <c r="AY91" s="5"/>
-      <c r="AZ91" s="5"/>
-      <c r="BA91" s="5"/>
-      <c r="BB91" s="5"/>
-      <c r="BC91" s="5"/>
-      <c r="BD91" s="5"/>
-      <c r="BE91" s="5"/>
-      <c r="BF91" s="5"/>
-      <c r="BG91" s="5"/>
-      <c r="BH91" s="5"/>
-      <c r="BI91" s="5"/>
-      <c r="BJ91" s="5"/>
-      <c r="BK91" s="5"/>
-      <c r="BL91" s="5"/>
-      <c r="BM91" s="5"/>
-      <c r="BN91" s="5"/>
-      <c r="BO91" s="5"/>
-      <c r="BP91" s="5"/>
-      <c r="BQ91" s="5"/>
-      <c r="BR91" s="5"/>
-      <c r="BS91" s="5"/>
-      <c r="BT91" s="5"/>
-      <c r="BU91" s="5"/>
-      <c r="BV91" s="5"/>
-      <c r="BW91" s="5"/>
-      <c r="BX91" s="5"/>
-      <c r="BY91" s="5"/>
-      <c r="BZ91" s="5"/>
-      <c r="CA91" s="5"/>
-      <c r="CB91" s="5"/>
-      <c r="CC91" s="5"/>
-      <c r="CD91" s="5"/>
-      <c r="CE91" s="5"/>
-      <c r="CF91" s="5"/>
-      <c r="CG91" s="5"/>
-      <c r="CH91" s="5"/>
-      <c r="CI91" s="5"/>
-      <c r="CJ91" s="5"/>
-      <c r="CK91" s="5"/>
-      <c r="CL91" s="5"/>
-      <c r="CM91" s="5"/>
-      <c r="CN91" s="5"/>
-      <c r="CO91" s="5"/>
-      <c r="CP91" s="5"/>
-      <c r="CQ91" s="5"/>
-      <c r="CR91" s="5"/>
-      <c r="CS91" s="5"/>
+      <c r="C91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+      <c r="X91" s="3"/>
+      <c r="Y91" s="3"/>
+      <c r="Z91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB91" s="3"/>
+      <c r="AC91" s="3"/>
+      <c r="AD91" s="3"/>
+      <c r="AE91" s="3"/>
+      <c r="AF91" s="3"/>
+      <c r="AG91" s="3"/>
+      <c r="AH91" s="3"/>
+      <c r="AI91" s="3"/>
+      <c r="AJ91" s="3"/>
+      <c r="AK91" s="3"/>
+      <c r="AL91" s="3"/>
+      <c r="AM91" s="3"/>
+      <c r="AN91" s="3"/>
+      <c r="AO91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AP91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AQ91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AR91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AS91" s="3"/>
+      <c r="AT91" s="3"/>
+      <c r="AU91" s="3"/>
+      <c r="AV91" s="3"/>
+      <c r="AW91" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="AX91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AY91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AZ91" s="3"/>
+      <c r="BA91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="BB91" s="3"/>
+      <c r="BC91" s="3"/>
+      <c r="BD91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="BE91" s="3"/>
+      <c r="BF91" s="3"/>
+      <c r="BG91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="BH91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="BI91" s="3"/>
+      <c r="BJ91" s="3"/>
+      <c r="BK91" s="3"/>
+      <c r="BL91" s="3"/>
+      <c r="BM91" s="3"/>
+      <c r="BN91" s="3"/>
+      <c r="BO91" s="3"/>
+      <c r="BP91" s="3"/>
+      <c r="BQ91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="BR91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="BS91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="BT91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="BU91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="BV91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="BW91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="BX91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="BY91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="BZ91" s="3"/>
+      <c r="CA91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="CB91" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="CC91" s="3"/>
+      <c r="CD91" s="3"/>
+      <c r="CE91" s="3"/>
+      <c r="CF91" s="3"/>
+      <c r="CG91" s="3"/>
+      <c r="CH91" s="3"/>
+      <c r="CI91" s="3"/>
+      <c r="CJ91" s="3"/>
+      <c r="CK91" s="3"/>
+      <c r="CL91" s="3"/>
+      <c r="CM91" s="3"/>
+      <c r="CN91" s="3"/>
+      <c r="CO91" s="3"/>
+      <c r="CP91" s="3"/>
+      <c r="CQ91" s="3"/>
+      <c r="CR91" s="3"/>
+      <c r="CS91" s="3" t="s">
+        <v>277</v>
+      </c>
       <c r="CT91" s="8"/>
     </row>
     <row r="92" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="5"/>
-      <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
-      <c r="O92" s="5"/>
-      <c r="P92" s="5"/>
-      <c r="Q92" s="5"/>
-      <c r="R92" s="5"/>
-      <c r="S92" s="5"/>
-      <c r="T92" s="5"/>
-      <c r="U92" s="5"/>
-      <c r="V92" s="5"/>
-      <c r="W92" s="5"/>
-      <c r="X92" s="5"/>
-      <c r="Y92" s="5"/>
-      <c r="Z92" s="5"/>
-      <c r="AA92" s="5"/>
-      <c r="AB92" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="AC92" s="5"/>
-      <c r="AD92" s="5"/>
-      <c r="AE92" s="5"/>
-      <c r="AF92" s="5"/>
-      <c r="AG92" s="5"/>
-      <c r="AH92" s="5"/>
-      <c r="AI92" s="5"/>
-      <c r="AJ92" s="5"/>
-      <c r="AK92" s="5"/>
-      <c r="AL92" s="5"/>
-      <c r="AM92" s="5"/>
-      <c r="AN92" s="5"/>
-      <c r="AO92" s="5"/>
-      <c r="AP92" s="5"/>
-      <c r="AQ92" s="5"/>
-      <c r="AR92" s="5"/>
-      <c r="AS92" s="5"/>
-      <c r="AT92" s="5"/>
-      <c r="AU92" s="5"/>
-      <c r="AV92" s="5"/>
-      <c r="AW92" s="5"/>
-      <c r="AX92" s="5"/>
-      <c r="AY92" s="5"/>
-      <c r="AZ92" s="5"/>
-      <c r="BA92" s="5"/>
-      <c r="BB92" s="5"/>
-      <c r="BC92" s="5"/>
-      <c r="BD92" s="5"/>
-      <c r="BE92" s="5"/>
-      <c r="BF92" s="5"/>
-      <c r="BG92" s="5"/>
-      <c r="BH92" s="5"/>
-      <c r="BI92" s="5"/>
-      <c r="BJ92" s="5"/>
-      <c r="BK92" s="5"/>
-      <c r="BL92" s="5"/>
-      <c r="BM92" s="5"/>
-      <c r="BN92" s="5"/>
-      <c r="BO92" s="5"/>
-      <c r="BP92" s="5"/>
-      <c r="BQ92" s="5"/>
-      <c r="BR92" s="5"/>
-      <c r="BS92" s="5"/>
-      <c r="BT92" s="5"/>
-      <c r="BU92" s="5"/>
-      <c r="BV92" s="5"/>
-      <c r="BW92" s="5"/>
-      <c r="BX92" s="5"/>
-      <c r="BY92" s="5"/>
-      <c r="BZ92" s="5"/>
-      <c r="CA92" s="5"/>
-      <c r="CB92" s="5"/>
-      <c r="CC92" s="5"/>
-      <c r="CD92" s="5"/>
-      <c r="CE92" s="5"/>
-      <c r="CF92" s="5"/>
-      <c r="CG92" s="5"/>
-      <c r="CH92" s="5"/>
-      <c r="CI92" s="5"/>
-      <c r="CJ92" s="5"/>
-      <c r="CK92" s="5"/>
-      <c r="CL92" s="5"/>
-      <c r="CM92" s="5"/>
-      <c r="CN92" s="5"/>
-      <c r="CO92" s="5"/>
-      <c r="CP92" s="5"/>
-      <c r="CQ92" s="5"/>
-      <c r="CR92" s="5"/>
-      <c r="CS92" s="5"/>
+        <v>294</v>
+      </c>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3"/>
+      <c r="Z92" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA92" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB92" s="3"/>
+      <c r="AC92" s="3"/>
+      <c r="AD92" s="3"/>
+      <c r="AE92" s="3"/>
+      <c r="AF92" s="3"/>
+      <c r="AG92" s="3"/>
+      <c r="AH92" s="3"/>
+      <c r="AI92" s="3"/>
+      <c r="AJ92" s="3"/>
+      <c r="AK92" s="3"/>
+      <c r="AL92" s="3"/>
+      <c r="AM92" s="3"/>
+      <c r="AN92" s="3"/>
+      <c r="AO92" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="AP92" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="AQ92" s="3"/>
+      <c r="AR92" s="3"/>
+      <c r="AS92" s="3"/>
+      <c r="AT92" s="3"/>
+      <c r="AU92" s="3"/>
+      <c r="AV92" s="3"/>
+      <c r="AW92" s="3"/>
+      <c r="AX92" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="AY92" s="3"/>
+      <c r="AZ92" s="3"/>
+      <c r="BA92" s="3"/>
+      <c r="BB92" s="3"/>
+      <c r="BC92" s="3"/>
+      <c r="BD92" s="3"/>
+      <c r="BE92" s="3"/>
+      <c r="BF92" s="3"/>
+      <c r="BG92" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="BH92" s="3"/>
+      <c r="BI92" s="3"/>
+      <c r="BJ92" s="3"/>
+      <c r="BK92" s="3"/>
+      <c r="BL92" s="3"/>
+      <c r="BM92" s="3"/>
+      <c r="BN92" s="3"/>
+      <c r="BO92" s="3"/>
+      <c r="BP92" s="3"/>
+      <c r="BQ92" s="3"/>
+      <c r="BR92" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="BS92" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="BT92" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="BU92" s="3"/>
+      <c r="BV92" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="BW92" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="BX92" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="BY92" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="BZ92" s="3"/>
+      <c r="CA92" s="3"/>
+      <c r="CB92" s="3"/>
+      <c r="CC92" s="3"/>
+      <c r="CD92" s="3"/>
+      <c r="CE92" s="3"/>
+      <c r="CF92" s="3"/>
+      <c r="CG92" s="3"/>
+      <c r="CH92" s="3"/>
+      <c r="CI92" s="3"/>
+      <c r="CJ92" s="3"/>
+      <c r="CK92" s="3"/>
+      <c r="CL92" s="3"/>
+      <c r="CM92" s="3"/>
+      <c r="CN92" s="3"/>
+      <c r="CO92" s="3"/>
+      <c r="CP92" s="3"/>
+      <c r="CQ92" s="3"/>
+      <c r="CR92" s="3"/>
+      <c r="CS92" s="3"/>
       <c r="CT92" s="8"/>
     </row>
     <row r="93" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -12005,7 +12138,9 @@
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
-      <c r="P93" s="5"/>
+      <c r="P93" s="5" t="s">
+        <v>280</v>
+      </c>
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
       <c r="S93" s="5"/>
@@ -12018,9 +12153,7 @@
       <c r="Z93" s="5"/>
       <c r="AA93" s="5"/>
       <c r="AB93" s="5"/>
-      <c r="AC93" s="5" t="s">
-        <v>281</v>
-      </c>
+      <c r="AC93" s="5"/>
       <c r="AD93" s="5"/>
       <c r="AE93" s="5"/>
       <c r="AF93" s="5"/>
@@ -12093,7 +12226,7 @@
     </row>
     <row r="94" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -12121,12 +12254,16 @@
       <c r="Y94" s="5"/>
       <c r="Z94" s="5"/>
       <c r="AA94" s="5"/>
-      <c r="AB94" s="5"/>
-      <c r="AC94" s="5"/>
+      <c r="AB94" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC94" s="5" t="s">
+        <v>284</v>
+      </c>
       <c r="AD94" s="5"/>
       <c r="AE94" s="5"/>
       <c r="AF94" s="5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AG94" s="5"/>
       <c r="AH94" s="5"/>
@@ -12197,7 +12334,7 @@
     </row>
     <row r="95" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -12225,7 +12362,9 @@
       <c r="Y95" s="5"/>
       <c r="Z95" s="5"/>
       <c r="AA95" s="5"/>
-      <c r="AB95" s="5"/>
+      <c r="AB95" s="5" t="s">
+        <v>286</v>
+      </c>
       <c r="AC95" s="5"/>
       <c r="AD95" s="5"/>
       <c r="AE95" s="5"/>
@@ -12242,9 +12381,7 @@
       <c r="AP95" s="5"/>
       <c r="AQ95" s="5"/>
       <c r="AR95" s="5"/>
-      <c r="AS95" s="5" t="s">
-        <v>283</v>
-      </c>
+      <c r="AS95" s="5"/>
       <c r="AT95" s="5"/>
       <c r="AU95" s="5"/>
       <c r="AV95" s="5"/>
@@ -12253,9 +12390,7 @@
       <c r="AY95" s="5"/>
       <c r="AZ95" s="5"/>
       <c r="BA95" s="5"/>
-      <c r="BB95" s="5" t="s">
-        <v>284</v>
-      </c>
+      <c r="BB95" s="5"/>
       <c r="BC95" s="5"/>
       <c r="BD95" s="5"/>
       <c r="BE95" s="5"/>
@@ -12302,8 +12437,322 @@
       <c r="CT95" s="8"/>
     </row>
     <row r="96" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>162</v>
+      <c r="A96" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5"/>
+      <c r="S96" s="5"/>
+      <c r="T96" s="5"/>
+      <c r="U96" s="5"/>
+      <c r="V96" s="5"/>
+      <c r="W96" s="5"/>
+      <c r="X96" s="5"/>
+      <c r="Y96" s="5"/>
+      <c r="Z96" s="5"/>
+      <c r="AA96" s="5"/>
+      <c r="AB96" s="5"/>
+      <c r="AC96" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD96" s="5"/>
+      <c r="AE96" s="5"/>
+      <c r="AF96" s="5"/>
+      <c r="AG96" s="5"/>
+      <c r="AH96" s="5"/>
+      <c r="AI96" s="5"/>
+      <c r="AJ96" s="5"/>
+      <c r="AK96" s="5"/>
+      <c r="AL96" s="5"/>
+      <c r="AM96" s="5"/>
+      <c r="AN96" s="5"/>
+      <c r="AO96" s="5"/>
+      <c r="AP96" s="5"/>
+      <c r="AQ96" s="5"/>
+      <c r="AR96" s="5"/>
+      <c r="AS96" s="5"/>
+      <c r="AT96" s="5"/>
+      <c r="AU96" s="5"/>
+      <c r="AV96" s="5"/>
+      <c r="AW96" s="5"/>
+      <c r="AX96" s="5"/>
+      <c r="AY96" s="5"/>
+      <c r="AZ96" s="5"/>
+      <c r="BA96" s="5"/>
+      <c r="BB96" s="5"/>
+      <c r="BC96" s="5"/>
+      <c r="BD96" s="5"/>
+      <c r="BE96" s="5"/>
+      <c r="BF96" s="5"/>
+      <c r="BG96" s="5"/>
+      <c r="BH96" s="5"/>
+      <c r="BI96" s="5"/>
+      <c r="BJ96" s="5"/>
+      <c r="BK96" s="5"/>
+      <c r="BL96" s="5"/>
+      <c r="BM96" s="5"/>
+      <c r="BN96" s="5"/>
+      <c r="BO96" s="5"/>
+      <c r="BP96" s="5"/>
+      <c r="BQ96" s="5"/>
+      <c r="BR96" s="5"/>
+      <c r="BS96" s="5"/>
+      <c r="BT96" s="5"/>
+      <c r="BU96" s="5"/>
+      <c r="BV96" s="5"/>
+      <c r="BW96" s="5"/>
+      <c r="BX96" s="5"/>
+      <c r="BY96" s="5"/>
+      <c r="BZ96" s="5"/>
+      <c r="CA96" s="5"/>
+      <c r="CB96" s="5"/>
+      <c r="CC96" s="5"/>
+      <c r="CD96" s="5"/>
+      <c r="CE96" s="5"/>
+      <c r="CF96" s="5"/>
+      <c r="CG96" s="5"/>
+      <c r="CH96" s="5"/>
+      <c r="CI96" s="5"/>
+      <c r="CJ96" s="5"/>
+      <c r="CK96" s="5"/>
+      <c r="CL96" s="5"/>
+      <c r="CM96" s="5"/>
+      <c r="CN96" s="5"/>
+      <c r="CO96" s="5"/>
+      <c r="CP96" s="5"/>
+      <c r="CQ96" s="5"/>
+      <c r="CR96" s="5"/>
+      <c r="CS96" s="5"/>
+      <c r="CT96" s="8"/>
+    </row>
+    <row r="97" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="5"/>
+      <c r="T97" s="5"/>
+      <c r="U97" s="5"/>
+      <c r="V97" s="5"/>
+      <c r="W97" s="5"/>
+      <c r="X97" s="5"/>
+      <c r="Y97" s="5"/>
+      <c r="Z97" s="5"/>
+      <c r="AA97" s="5"/>
+      <c r="AB97" s="5"/>
+      <c r="AC97" s="5"/>
+      <c r="AD97" s="5"/>
+      <c r="AE97" s="5"/>
+      <c r="AF97" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="AG97" s="5"/>
+      <c r="AH97" s="5"/>
+      <c r="AI97" s="5"/>
+      <c r="AJ97" s="5"/>
+      <c r="AK97" s="5"/>
+      <c r="AL97" s="5"/>
+      <c r="AM97" s="5"/>
+      <c r="AN97" s="5"/>
+      <c r="AO97" s="5"/>
+      <c r="AP97" s="5"/>
+      <c r="AQ97" s="5"/>
+      <c r="AR97" s="5"/>
+      <c r="AS97" s="5"/>
+      <c r="AT97" s="5"/>
+      <c r="AU97" s="5"/>
+      <c r="AV97" s="5"/>
+      <c r="AW97" s="5"/>
+      <c r="AX97" s="5"/>
+      <c r="AY97" s="5"/>
+      <c r="AZ97" s="5"/>
+      <c r="BA97" s="5"/>
+      <c r="BB97" s="5"/>
+      <c r="BC97" s="5"/>
+      <c r="BD97" s="5"/>
+      <c r="BE97" s="5"/>
+      <c r="BF97" s="5"/>
+      <c r="BG97" s="5"/>
+      <c r="BH97" s="5"/>
+      <c r="BI97" s="5"/>
+      <c r="BJ97" s="5"/>
+      <c r="BK97" s="5"/>
+      <c r="BL97" s="5"/>
+      <c r="BM97" s="5"/>
+      <c r="BN97" s="5"/>
+      <c r="BO97" s="5"/>
+      <c r="BP97" s="5"/>
+      <c r="BQ97" s="5"/>
+      <c r="BR97" s="5"/>
+      <c r="BS97" s="5"/>
+      <c r="BT97" s="5"/>
+      <c r="BU97" s="5"/>
+      <c r="BV97" s="5"/>
+      <c r="BW97" s="5"/>
+      <c r="BX97" s="5"/>
+      <c r="BY97" s="5"/>
+      <c r="BZ97" s="5"/>
+      <c r="CA97" s="5"/>
+      <c r="CB97" s="5"/>
+      <c r="CC97" s="5"/>
+      <c r="CD97" s="5"/>
+      <c r="CE97" s="5"/>
+      <c r="CF97" s="5"/>
+      <c r="CG97" s="5"/>
+      <c r="CH97" s="5"/>
+      <c r="CI97" s="5"/>
+      <c r="CJ97" s="5"/>
+      <c r="CK97" s="5"/>
+      <c r="CL97" s="5"/>
+      <c r="CM97" s="5"/>
+      <c r="CN97" s="5"/>
+      <c r="CO97" s="5"/>
+      <c r="CP97" s="5"/>
+      <c r="CQ97" s="5"/>
+      <c r="CR97" s="5"/>
+      <c r="CS97" s="5"/>
+      <c r="CT97" s="8"/>
+    </row>
+    <row r="98" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="5"/>
+      <c r="T98" s="5"/>
+      <c r="U98" s="5"/>
+      <c r="V98" s="5"/>
+      <c r="W98" s="5"/>
+      <c r="X98" s="5"/>
+      <c r="Y98" s="5"/>
+      <c r="Z98" s="5"/>
+      <c r="AA98" s="5"/>
+      <c r="AB98" s="5"/>
+      <c r="AC98" s="5"/>
+      <c r="AD98" s="5"/>
+      <c r="AE98" s="5"/>
+      <c r="AF98" s="5"/>
+      <c r="AG98" s="5"/>
+      <c r="AH98" s="5"/>
+      <c r="AI98" s="5"/>
+      <c r="AJ98" s="5"/>
+      <c r="AK98" s="5"/>
+      <c r="AL98" s="5"/>
+      <c r="AM98" s="5"/>
+      <c r="AN98" s="5"/>
+      <c r="AO98" s="5"/>
+      <c r="AP98" s="5"/>
+      <c r="AQ98" s="5"/>
+      <c r="AR98" s="5"/>
+      <c r="AS98" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="AT98" s="5"/>
+      <c r="AU98" s="5"/>
+      <c r="AV98" s="5"/>
+      <c r="AW98" s="5"/>
+      <c r="AX98" s="5"/>
+      <c r="AY98" s="5"/>
+      <c r="AZ98" s="5"/>
+      <c r="BA98" s="5"/>
+      <c r="BB98" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="BC98" s="5"/>
+      <c r="BD98" s="5"/>
+      <c r="BE98" s="5"/>
+      <c r="BF98" s="5"/>
+      <c r="BG98" s="5"/>
+      <c r="BH98" s="5"/>
+      <c r="BI98" s="5"/>
+      <c r="BJ98" s="5"/>
+      <c r="BK98" s="5"/>
+      <c r="BL98" s="5"/>
+      <c r="BM98" s="5"/>
+      <c r="BN98" s="5"/>
+      <c r="BO98" s="5"/>
+      <c r="BP98" s="5"/>
+      <c r="BQ98" s="5"/>
+      <c r="BR98" s="5"/>
+      <c r="BS98" s="5"/>
+      <c r="BT98" s="5"/>
+      <c r="BU98" s="5"/>
+      <c r="BV98" s="5"/>
+      <c r="BW98" s="5"/>
+      <c r="BX98" s="5"/>
+      <c r="BY98" s="5"/>
+      <c r="BZ98" s="5"/>
+      <c r="CA98" s="5"/>
+      <c r="CB98" s="5"/>
+      <c r="CC98" s="5"/>
+      <c r="CD98" s="5"/>
+      <c r="CE98" s="5"/>
+      <c r="CF98" s="5"/>
+      <c r="CG98" s="5"/>
+      <c r="CH98" s="5"/>
+      <c r="CI98" s="5"/>
+      <c r="CJ98" s="5"/>
+      <c r="CK98" s="5"/>
+      <c r="CL98" s="5"/>
+      <c r="CM98" s="5"/>
+      <c r="CN98" s="5"/>
+      <c r="CO98" s="5"/>
+      <c r="CP98" s="5"/>
+      <c r="CQ98" s="5"/>
+      <c r="CR98" s="5"/>
+      <c r="CS98" s="5"/>
+      <c r="CT98" s="8"/>
+    </row>
+    <row r="99" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
